--- a/0_Data/9_Supplementary Information/Toilet.Codes.All_mapped.xlsx
+++ b/0_Data/9_Supplementary Information/Toilet.Codes.All_mapped.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="384">
   <si>
     <t>Country_long</t>
   </si>
@@ -1165,6 +1165,12 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>NA0</t>
+  </si>
+  <si>
+    <t>NANA</t>
   </si>
 </sst>
 </file>
@@ -1200,8 +1206,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1498,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D381"/>
+  <dimension ref="A1:D385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
-      <selection activeCell="D374" sqref="D374"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="B288" sqref="B288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3039,16 +3046,16 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>129</v>
-      </c>
-      <c r="B111" t="s">
-        <v>5</v>
+        <v>118</v>
+      </c>
+      <c r="B111" s="1">
+        <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>130</v>
+        <v>381</v>
       </c>
       <c r="D111" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -3056,10 +3063,10 @@
         <v>129</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D112" t="s">
         <v>52</v>
@@ -3070,10 +3077,10 @@
         <v>129</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D113" t="s">
         <v>52</v>
@@ -3084,13 +3091,13 @@
         <v>129</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D114" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -3098,10 +3105,10 @@
         <v>129</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D115" t="s">
         <v>59</v>
@@ -3112,13 +3119,13 @@
         <v>129</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C116" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D116" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -3126,13 +3133,13 @@
         <v>129</v>
       </c>
       <c r="B117" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C117" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D117" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -3140,10 +3147,10 @@
         <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D118" t="s">
         <v>59</v>
@@ -3154,10 +3161,10 @@
         <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C119" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D119" t="s">
         <v>59</v>
@@ -3168,10 +3175,10 @@
         <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C120" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D120" t="s">
         <v>59</v>
@@ -3182,10 +3189,10 @@
         <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C121" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D121" t="s">
         <v>59</v>
@@ -3196,10 +3203,10 @@
         <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C122" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D122" t="s">
         <v>59</v>
@@ -3210,10 +3217,10 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="C123" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D123" t="s">
         <v>59</v>
@@ -3224,10 +3231,10 @@
         <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C124" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D124" t="s">
         <v>59</v>
@@ -3238,13 +3245,13 @@
         <v>129</v>
       </c>
       <c r="B125" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C125" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D125" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -3252,27 +3259,27 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C126" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D126" t="s">
-        <v>381</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="C127" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D127" t="s">
-        <v>70</v>
+        <v>381</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -3280,13 +3287,13 @@
         <v>150</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D128" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -3294,10 +3301,10 @@
         <v>150</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D129" t="s">
         <v>52</v>
@@ -3308,13 +3315,13 @@
         <v>150</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D130" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -3322,10 +3329,10 @@
         <v>150</v>
       </c>
       <c r="B131" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C131" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D131" t="s">
         <v>59</v>
@@ -3336,10 +3343,10 @@
         <v>150</v>
       </c>
       <c r="B132" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C132" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D132" t="s">
         <v>59</v>
@@ -3350,27 +3357,27 @@
         <v>150</v>
       </c>
       <c r="B133" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="D133" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C134" t="s">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="D134" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -3378,10 +3385,10 @@
         <v>157</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D135" t="s">
         <v>52</v>
@@ -3392,10 +3399,10 @@
         <v>157</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D136" t="s">
         <v>52</v>
@@ -3406,13 +3413,13 @@
         <v>157</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D137" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -3420,27 +3427,27 @@
         <v>157</v>
       </c>
       <c r="B138" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C138" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="D138" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C139" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="D139" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -3448,10 +3455,10 @@
         <v>162</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D140" t="s">
         <v>52</v>
@@ -3462,10 +3469,10 @@
         <v>162</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D141" t="s">
         <v>52</v>
@@ -3476,10 +3483,10 @@
         <v>162</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D142" t="s">
         <v>52</v>
@@ -3490,10 +3497,10 @@
         <v>162</v>
       </c>
       <c r="B143" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D143" t="s">
         <v>52</v>
@@ -3504,10 +3511,10 @@
         <v>162</v>
       </c>
       <c r="B144" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C144" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D144" t="s">
         <v>52</v>
@@ -3518,10 +3525,10 @@
         <v>162</v>
       </c>
       <c r="B145" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C145" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D145" t="s">
         <v>52</v>
@@ -3532,10 +3539,10 @@
         <v>162</v>
       </c>
       <c r="B146" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C146" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D146" t="s">
         <v>52</v>
@@ -3546,13 +3553,13 @@
         <v>162</v>
       </c>
       <c r="B147" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C147" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D147" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -3560,13 +3567,13 @@
         <v>162</v>
       </c>
       <c r="B148" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C148" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D148" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -3574,13 +3581,13 @@
         <v>162</v>
       </c>
       <c r="B149" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C149" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D149" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -3588,27 +3595,27 @@
         <v>162</v>
       </c>
       <c r="B150" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C150" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D150" t="s">
-        <v>381</v>
+        <v>70</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C151" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D151" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -3616,10 +3623,10 @@
         <v>175</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D152" t="s">
         <v>52</v>
@@ -3630,10 +3637,10 @@
         <v>175</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D153" t="s">
         <v>52</v>
@@ -3644,13 +3651,13 @@
         <v>175</v>
       </c>
       <c r="B154" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D154" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -3658,27 +3665,27 @@
         <v>175</v>
       </c>
       <c r="B155" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C155" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D155" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C156" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D156" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -3686,10 +3693,10 @@
         <v>181</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D157" t="s">
         <v>52</v>
@@ -3700,10 +3707,10 @@
         <v>181</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D158" t="s">
         <v>52</v>
@@ -3714,10 +3721,10 @@
         <v>181</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D159" t="s">
         <v>52</v>
@@ -3728,13 +3735,13 @@
         <v>181</v>
       </c>
       <c r="B160" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C160" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D160" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
@@ -3742,10 +3749,10 @@
         <v>181</v>
       </c>
       <c r="B161" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C161" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D161" t="s">
         <v>59</v>
@@ -3756,13 +3763,13 @@
         <v>181</v>
       </c>
       <c r="B162" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C162" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D162" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -3770,13 +3777,13 @@
         <v>181</v>
       </c>
       <c r="B163" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C163" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D163" t="s">
-        <v>381</v>
+        <v>70</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -3784,13 +3791,13 @@
         <v>181</v>
       </c>
       <c r="B164" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C164" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D164" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -3798,10 +3805,10 @@
         <v>181</v>
       </c>
       <c r="B165" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C165" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D165" t="s">
         <v>52</v>
@@ -3812,13 +3819,13 @@
         <v>181</v>
       </c>
       <c r="B166" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C166" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D166" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -3826,10 +3833,10 @@
         <v>181</v>
       </c>
       <c r="B167" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C167" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D167" t="s">
         <v>59</v>
@@ -3840,24 +3847,24 @@
         <v>181</v>
       </c>
       <c r="B168" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="C168" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D168" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B169" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="C169" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D169" t="s">
         <v>52</v>
@@ -3868,10 +3875,10 @@
         <v>195</v>
       </c>
       <c r="B170" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C170" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D170" t="s">
         <v>52</v>
@@ -3882,13 +3889,13 @@
         <v>195</v>
       </c>
       <c r="B171" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="C171" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D171" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -3896,10 +3903,10 @@
         <v>195</v>
       </c>
       <c r="B172" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C172" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D172" t="s">
         <v>59</v>
@@ -3910,10 +3917,10 @@
         <v>195</v>
       </c>
       <c r="B173" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C173" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D173" t="s">
         <v>59</v>
@@ -3924,13 +3931,13 @@
         <v>195</v>
       </c>
       <c r="B174" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="C174" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D174" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
@@ -3938,13 +3945,13 @@
         <v>195</v>
       </c>
       <c r="B175" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C175" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="D175" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -3952,10 +3959,10 @@
         <v>195</v>
       </c>
       <c r="B176" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C176" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="D176" t="s">
         <v>59</v>
@@ -3966,10 +3973,10 @@
         <v>195</v>
       </c>
       <c r="B177" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C177" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D177" t="s">
         <v>59</v>
@@ -3980,10 +3987,10 @@
         <v>195</v>
       </c>
       <c r="B178" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C178" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D178" t="s">
         <v>59</v>
@@ -3994,10 +4001,10 @@
         <v>195</v>
       </c>
       <c r="B179" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C179" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D179" t="s">
         <v>59</v>
@@ -4008,13 +4015,13 @@
         <v>195</v>
       </c>
       <c r="B180" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C180" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D180" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
@@ -4022,27 +4029,27 @@
         <v>195</v>
       </c>
       <c r="B181" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C181" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="D181" t="s">
-        <v>381</v>
+        <v>70</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="C182" t="s">
-        <v>216</v>
+        <v>29</v>
       </c>
       <c r="D182" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
@@ -4050,10 +4057,10 @@
         <v>215</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D183" t="s">
         <v>52</v>
@@ -4064,13 +4071,13 @@
         <v>215</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D184" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
@@ -4078,10 +4085,10 @@
         <v>215</v>
       </c>
       <c r="B185" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D185" t="s">
         <v>59</v>
@@ -4092,10 +4099,10 @@
         <v>215</v>
       </c>
       <c r="B186" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C186" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D186" t="s">
         <v>59</v>
@@ -4106,13 +4113,13 @@
         <v>215</v>
       </c>
       <c r="B187" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C187" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D187" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
@@ -4120,27 +4127,27 @@
         <v>215</v>
       </c>
       <c r="B188" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C188" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="D188" t="s">
-        <v>381</v>
+        <v>70</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C189" t="s">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="D189" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
@@ -4148,10 +4155,10 @@
         <v>222</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D190" t="s">
         <v>52</v>
@@ -4162,13 +4169,13 @@
         <v>222</v>
       </c>
       <c r="B191" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="D191" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
@@ -4176,10 +4183,10 @@
         <v>222</v>
       </c>
       <c r="B192" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D192" t="s">
         <v>59</v>
@@ -4190,10 +4197,10 @@
         <v>222</v>
       </c>
       <c r="B193" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C193" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D193" t="s">
         <v>59</v>
@@ -4204,13 +4211,13 @@
         <v>222</v>
       </c>
       <c r="B194" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C194" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D194" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
@@ -4218,13 +4225,13 @@
         <v>222</v>
       </c>
       <c r="B195" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C195" t="s">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="D195" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
@@ -4232,10 +4239,10 @@
         <v>222</v>
       </c>
       <c r="B196" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C196" t="s">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="D196" t="s">
         <v>59</v>
@@ -4246,10 +4253,10 @@
         <v>222</v>
       </c>
       <c r="B197" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C197" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="D197" t="s">
         <v>59</v>
@@ -4260,10 +4267,10 @@
         <v>222</v>
       </c>
       <c r="B198" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C198" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="D198" t="s">
         <v>59</v>
@@ -4274,10 +4281,10 @@
         <v>222</v>
       </c>
       <c r="B199" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C199" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D199" t="s">
         <v>59</v>
@@ -4288,13 +4295,13 @@
         <v>222</v>
       </c>
       <c r="B200" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C200" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D200" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
@@ -4302,27 +4309,27 @@
         <v>222</v>
       </c>
       <c r="B201" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="C201" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D201" t="s">
-        <v>381</v>
+        <v>70</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="C202" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D202" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
@@ -4330,13 +4337,13 @@
         <v>232</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D203" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
@@ -4344,13 +4351,13 @@
         <v>232</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="D204" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -4358,13 +4365,13 @@
         <v>232</v>
       </c>
       <c r="B205" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="D205" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
@@ -4372,13 +4379,13 @@
         <v>232</v>
       </c>
       <c r="B206" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C206" t="s">
-        <v>2</v>
+        <v>235</v>
       </c>
       <c r="D206" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
@@ -4386,27 +4393,27 @@
         <v>232</v>
       </c>
       <c r="B207" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C207" t="s">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="D207" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B208" t="s">
-        <v>237</v>
+        <v>21</v>
       </c>
       <c r="C208" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="D208" t="s">
-        <v>381</v>
+        <v>70</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -4414,13 +4421,13 @@
         <v>236</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>237</v>
       </c>
       <c r="C209" t="s">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c r="D209" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -4428,10 +4435,10 @@
         <v>236</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D210" t="s">
         <v>52</v>
@@ -4442,10 +4449,10 @@
         <v>236</v>
       </c>
       <c r="B211" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D211" t="s">
         <v>52</v>
@@ -4456,10 +4463,10 @@
         <v>236</v>
       </c>
       <c r="B212" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D212" t="s">
         <v>52</v>
@@ -4470,10 +4477,10 @@
         <v>236</v>
       </c>
       <c r="B213" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C213" t="s">
-        <v>239</v>
+        <v>34</v>
       </c>
       <c r="D213" t="s">
         <v>52</v>
@@ -4484,10 +4491,10 @@
         <v>236</v>
       </c>
       <c r="B214" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C214" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D214" t="s">
         <v>52</v>
@@ -4498,10 +4505,10 @@
         <v>236</v>
       </c>
       <c r="B215" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C215" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D215" t="s">
         <v>52</v>
@@ -4512,10 +4519,10 @@
         <v>236</v>
       </c>
       <c r="B216" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C216" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D216" t="s">
         <v>52</v>
@@ -4526,13 +4533,13 @@
         <v>236</v>
       </c>
       <c r="B217" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C217" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="D217" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
@@ -4540,13 +4547,13 @@
         <v>236</v>
       </c>
       <c r="B218" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C218" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D218" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
@@ -4554,13 +4561,13 @@
         <v>236</v>
       </c>
       <c r="B219" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C219" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D219" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
@@ -4568,27 +4575,27 @@
         <v>236</v>
       </c>
       <c r="B220" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C220" t="s">
-        <v>243</v>
+        <v>46</v>
       </c>
       <c r="D220" t="s">
-        <v>381</v>
+        <v>70</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C221" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D221" t="s">
-        <v>70</v>
+        <v>381</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
@@ -4596,13 +4603,13 @@
         <v>244</v>
       </c>
       <c r="B222" t="s">
-        <v>246</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D222" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
@@ -4610,10 +4617,10 @@
         <v>244</v>
       </c>
       <c r="B223" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C223" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D223" t="s">
         <v>52</v>
@@ -4624,13 +4631,13 @@
         <v>244</v>
       </c>
       <c r="B224" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C224" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D224" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -4638,10 +4645,10 @@
         <v>244</v>
       </c>
       <c r="B225" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C225" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D225" t="s">
         <v>59</v>
@@ -4652,10 +4659,10 @@
         <v>244</v>
       </c>
       <c r="B226" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C226" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D226" t="s">
         <v>59</v>
@@ -4666,10 +4673,10 @@
         <v>244</v>
       </c>
       <c r="B227" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C227" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D227" t="s">
         <v>59</v>
@@ -4677,16 +4684,16 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>256</v>
       </c>
       <c r="C228" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D228" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
@@ -4694,13 +4701,13 @@
         <v>258</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D229" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
@@ -4708,10 +4715,10 @@
         <v>258</v>
       </c>
       <c r="B230" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D230" t="s">
         <v>59</v>
@@ -4722,10 +4729,10 @@
         <v>258</v>
       </c>
       <c r="B231" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D231" t="s">
         <v>59</v>
@@ -4736,10 +4743,10 @@
         <v>258</v>
       </c>
       <c r="B232" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C232" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D232" t="s">
         <v>59</v>
@@ -4750,13 +4757,13 @@
         <v>258</v>
       </c>
       <c r="B233" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C233" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D233" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
@@ -4764,13 +4771,13 @@
         <v>258</v>
       </c>
       <c r="B234" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C234" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D234" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
@@ -4778,13 +4785,13 @@
         <v>258</v>
       </c>
       <c r="B235" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C235" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D235" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
@@ -4792,27 +4799,27 @@
         <v>258</v>
       </c>
       <c r="B236" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C236" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D236" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C237" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D237" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
@@ -4820,10 +4827,10 @@
         <v>268</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D238" t="s">
         <v>52</v>
@@ -4834,13 +4841,13 @@
         <v>268</v>
       </c>
       <c r="B239" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D239" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
@@ -4848,10 +4855,10 @@
         <v>268</v>
       </c>
       <c r="B240" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C240" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D240" t="s">
         <v>59</v>
@@ -4862,10 +4869,10 @@
         <v>268</v>
       </c>
       <c r="B241" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C241" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="D241" t="s">
         <v>59</v>
@@ -4876,10 +4883,10 @@
         <v>268</v>
       </c>
       <c r="B242" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C242" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="D242" t="s">
         <v>59</v>
@@ -4890,10 +4897,10 @@
         <v>268</v>
       </c>
       <c r="B243" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C243" t="s">
-        <v>205</v>
+        <v>273</v>
       </c>
       <c r="D243" t="s">
         <v>59</v>
@@ -4904,10 +4911,10 @@
         <v>268</v>
       </c>
       <c r="B244" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C244" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D244" t="s">
         <v>59</v>
@@ -4918,10 +4925,10 @@
         <v>268</v>
       </c>
       <c r="B245" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C245" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="D245" t="s">
         <v>59</v>
@@ -4932,10 +4939,10 @@
         <v>268</v>
       </c>
       <c r="B246" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C246" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="D246" t="s">
         <v>59</v>
@@ -4946,13 +4953,13 @@
         <v>268</v>
       </c>
       <c r="B247" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C247" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D247" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -4960,27 +4967,27 @@
         <v>268</v>
       </c>
       <c r="B248" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C248" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="D248" t="s">
-        <v>381</v>
+        <v>70</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C249" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="D249" t="s">
-        <v>59</v>
+        <v>381</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
@@ -4988,13 +4995,13 @@
         <v>276</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D250" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
@@ -5002,10 +5009,10 @@
         <v>276</v>
       </c>
       <c r="B251" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D251" t="s">
         <v>52</v>
@@ -5016,10 +5023,10 @@
         <v>276</v>
       </c>
       <c r="B252" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C252" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D252" t="s">
         <v>52</v>
@@ -5030,13 +5037,13 @@
         <v>276</v>
       </c>
       <c r="B253" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C253" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D253" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
@@ -5044,13 +5051,13 @@
         <v>276</v>
       </c>
       <c r="B254" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C254" t="s">
-        <v>94</v>
+        <v>281</v>
       </c>
       <c r="D254" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
@@ -5058,13 +5065,13 @@
         <v>276</v>
       </c>
       <c r="B255" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C255" t="s">
-        <v>282</v>
+        <v>94</v>
       </c>
       <c r="D255" t="s">
-        <v>381</v>
+        <v>70</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
@@ -5072,10 +5079,10 @@
         <v>276</v>
       </c>
       <c r="B256" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C256" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D256" t="s">
         <v>381</v>
@@ -5083,16 +5090,16 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C257" t="s">
-        <v>102</v>
+        <v>283</v>
       </c>
       <c r="D257" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
@@ -5100,10 +5107,10 @@
         <v>284</v>
       </c>
       <c r="B258" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C258" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D258" t="s">
         <v>52</v>
@@ -5114,10 +5121,10 @@
         <v>284</v>
       </c>
       <c r="B259" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C259" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D259" t="s">
         <v>52</v>
@@ -5128,10 +5135,10 @@
         <v>284</v>
       </c>
       <c r="B260" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C260" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D260" t="s">
         <v>52</v>
@@ -5142,10 +5149,10 @@
         <v>284</v>
       </c>
       <c r="B261" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C261" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="D261" t="s">
         <v>52</v>
@@ -5156,10 +5163,10 @@
         <v>284</v>
       </c>
       <c r="B262" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C262" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D262" t="s">
         <v>52</v>
@@ -5170,10 +5177,10 @@
         <v>284</v>
       </c>
       <c r="B263" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C263" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D263" t="s">
         <v>52</v>
@@ -5184,10 +5191,10 @@
         <v>284</v>
       </c>
       <c r="B264" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C264" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D264" t="s">
         <v>52</v>
@@ -5198,13 +5205,13 @@
         <v>284</v>
       </c>
       <c r="B265" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C265" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D265" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
@@ -5212,13 +5219,13 @@
         <v>284</v>
       </c>
       <c r="B266" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C266" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D266" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -5226,13 +5233,13 @@
         <v>284</v>
       </c>
       <c r="B267" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C267" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D267" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
@@ -5240,27 +5247,27 @@
         <v>284</v>
       </c>
       <c r="B268" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C268" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="D268" t="s">
-        <v>381</v>
+        <v>70</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B269" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C269" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="D269" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
@@ -5268,10 +5275,10 @@
         <v>285</v>
       </c>
       <c r="B270" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C270" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D270" t="s">
         <v>52</v>
@@ -5282,13 +5289,13 @@
         <v>285</v>
       </c>
       <c r="B271" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C271" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D271" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
@@ -5296,10 +5303,10 @@
         <v>285</v>
       </c>
       <c r="B272" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C272" t="s">
-        <v>133</v>
+        <v>288</v>
       </c>
       <c r="D272" t="s">
         <v>59</v>
@@ -5310,10 +5317,10 @@
         <v>285</v>
       </c>
       <c r="B273" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C273" t="s">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="D273" t="s">
         <v>59</v>
@@ -5324,10 +5331,10 @@
         <v>285</v>
       </c>
       <c r="B274" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C274" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D274" t="s">
         <v>59</v>
@@ -5338,10 +5345,10 @@
         <v>285</v>
       </c>
       <c r="B275" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C275" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D275" t="s">
         <v>59</v>
@@ -5352,10 +5359,10 @@
         <v>285</v>
       </c>
       <c r="B276" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C276" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D276" t="s">
         <v>59</v>
@@ -5366,10 +5373,10 @@
         <v>285</v>
       </c>
       <c r="B277" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C277" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D277" t="s">
         <v>59</v>
@@ -5380,10 +5387,10 @@
         <v>285</v>
       </c>
       <c r="B278" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C278" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D278" t="s">
         <v>59</v>
@@ -5394,10 +5401,10 @@
         <v>285</v>
       </c>
       <c r="B279" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C279" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D279" t="s">
         <v>59</v>
@@ -5408,13 +5415,13 @@
         <v>285</v>
       </c>
       <c r="B280" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C280" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D280" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
@@ -5422,27 +5429,27 @@
         <v>285</v>
       </c>
       <c r="B281" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="C281" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D281" t="s">
-        <v>381</v>
+        <v>70</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="C282" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D282" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -5450,13 +5457,13 @@
         <v>298</v>
       </c>
       <c r="B283" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C283" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D283" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -5464,10 +5471,10 @@
         <v>298</v>
       </c>
       <c r="B284" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C284" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D284" t="s">
         <v>59</v>
@@ -5478,10 +5485,10 @@
         <v>298</v>
       </c>
       <c r="B285" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C285" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D285" t="s">
         <v>59</v>
@@ -5492,41 +5499,41 @@
         <v>298</v>
       </c>
       <c r="B286" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C286" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D286" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B287" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C287" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D287" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>304</v>
-      </c>
-      <c r="B288" t="s">
-        <v>7</v>
+        <v>298</v>
+      </c>
+      <c r="B288" s="1">
+        <v>6</v>
       </c>
       <c r="C288" t="s">
-        <v>306</v>
+        <v>381</v>
       </c>
       <c r="D288" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -5534,10 +5541,10 @@
         <v>304</v>
       </c>
       <c r="B289" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C289" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D289" t="s">
         <v>52</v>
@@ -5548,13 +5555,13 @@
         <v>304</v>
       </c>
       <c r="B290" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C290" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D290" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
@@ -5562,10 +5569,10 @@
         <v>304</v>
       </c>
       <c r="B291" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C291" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D291" t="s">
         <v>52</v>
@@ -5576,10 +5583,10 @@
         <v>304</v>
       </c>
       <c r="B292" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C292" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D292" t="s">
         <v>59</v>
@@ -5590,13 +5597,13 @@
         <v>304</v>
       </c>
       <c r="B293" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C293" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D293" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
@@ -5604,13 +5611,13 @@
         <v>304</v>
       </c>
       <c r="B294" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C294" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D294" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
@@ -5618,41 +5625,41 @@
         <v>304</v>
       </c>
       <c r="B295" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C295" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D295" t="s">
-        <v>381</v>
+        <v>70</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B296" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C296" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D296" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B297" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C297" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D297" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
@@ -5660,10 +5667,10 @@
         <v>314</v>
       </c>
       <c r="B298" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C298" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D298" t="s">
         <v>52</v>
@@ -5674,10 +5681,10 @@
         <v>314</v>
       </c>
       <c r="B299" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C299" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D299" t="s">
         <v>52</v>
@@ -5688,10 +5695,10 @@
         <v>314</v>
       </c>
       <c r="B300" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C300" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D300" t="s">
         <v>52</v>
@@ -5702,13 +5709,13 @@
         <v>314</v>
       </c>
       <c r="B301" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C301" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D301" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
@@ -5716,13 +5723,13 @@
         <v>314</v>
       </c>
       <c r="B302" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C302" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D302" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
@@ -5730,41 +5737,41 @@
         <v>314</v>
       </c>
       <c r="B303" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C303" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D303" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B304" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C304" t="s">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="D304" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B305" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C305" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D305" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
@@ -5772,13 +5779,13 @@
         <v>323</v>
       </c>
       <c r="B306" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="C306" t="s">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="D306" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
@@ -5786,10 +5793,10 @@
         <v>323</v>
       </c>
       <c r="B307" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C307" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D307" t="s">
         <v>52</v>
@@ -5800,10 +5807,10 @@
         <v>323</v>
       </c>
       <c r="B308" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C308" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D308" t="s">
         <v>52</v>
@@ -5814,10 +5821,10 @@
         <v>323</v>
       </c>
       <c r="B309" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C309" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D309" t="s">
         <v>52</v>
@@ -5828,13 +5835,13 @@
         <v>323</v>
       </c>
       <c r="B310" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C310" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D310" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
@@ -5842,41 +5849,41 @@
         <v>323</v>
       </c>
       <c r="B311" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C311" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D311" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B312" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C312" t="s">
-        <v>216</v>
+        <v>329</v>
       </c>
       <c r="D312" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B313" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C313" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D313" t="s">
-        <v>59</v>
+        <v>381</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
@@ -5884,13 +5891,13 @@
         <v>331</v>
       </c>
       <c r="B314" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C314" t="s">
-        <v>333</v>
+        <v>216</v>
       </c>
       <c r="D314" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
@@ -5898,13 +5905,13 @@
         <v>331</v>
       </c>
       <c r="B315" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C315" t="s">
-        <v>29</v>
+        <v>332</v>
       </c>
       <c r="D315" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
@@ -5912,41 +5919,41 @@
         <v>331</v>
       </c>
       <c r="B316" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C316" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D316" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B317" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C317" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D317" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B318" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C318" t="s">
-        <v>32</v>
+        <v>334</v>
       </c>
       <c r="D318" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
@@ -5954,10 +5961,10 @@
         <v>335</v>
       </c>
       <c r="B319" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C319" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D319" t="s">
         <v>52</v>
@@ -5968,10 +5975,10 @@
         <v>335</v>
       </c>
       <c r="B320" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C320" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D320" t="s">
         <v>52</v>
@@ -5982,10 +5989,10 @@
         <v>335</v>
       </c>
       <c r="B321" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C321" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D321" t="s">
         <v>52</v>
@@ -5996,10 +6003,10 @@
         <v>335</v>
       </c>
       <c r="B322" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C322" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D322" t="s">
         <v>52</v>
@@ -6010,10 +6017,10 @@
         <v>335</v>
       </c>
       <c r="B323" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C323" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D323" t="s">
         <v>52</v>
@@ -6024,10 +6031,10 @@
         <v>335</v>
       </c>
       <c r="B324" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C324" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D324" t="s">
         <v>52</v>
@@ -6038,13 +6045,13 @@
         <v>335</v>
       </c>
       <c r="B325" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C325" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D325" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
@@ -6052,10 +6059,10 @@
         <v>335</v>
       </c>
       <c r="B326" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C326" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D326" t="s">
         <v>52</v>
@@ -6066,13 +6073,13 @@
         <v>335</v>
       </c>
       <c r="B327" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C327" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D327" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
@@ -6080,41 +6087,41 @@
         <v>335</v>
       </c>
       <c r="B328" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C328" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D328" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B329" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C329" t="s">
-        <v>337</v>
+        <v>46</v>
       </c>
       <c r="D329" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B330" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C330" t="s">
-        <v>338</v>
+        <v>48</v>
       </c>
       <c r="D330" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
@@ -6122,10 +6129,10 @@
         <v>336</v>
       </c>
       <c r="B331" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C331" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D331" t="s">
         <v>52</v>
@@ -6136,10 +6143,10 @@
         <v>336</v>
       </c>
       <c r="B332" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C332" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D332" t="s">
         <v>52</v>
@@ -6150,10 +6157,10 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C333" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D333" t="s">
         <v>52</v>
@@ -6164,13 +6171,13 @@
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C334" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D334" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
@@ -6178,13 +6185,13 @@
         <v>336</v>
       </c>
       <c r="B335" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C335" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D335" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
@@ -6192,13 +6199,13 @@
         <v>336</v>
       </c>
       <c r="B336" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C336" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D336" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
@@ -6206,13 +6213,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C337" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D337" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
@@ -6220,13 +6227,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C338" t="s">
-        <v>29</v>
+        <v>344</v>
       </c>
       <c r="D338" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
@@ -6234,41 +6241,41 @@
         <v>336</v>
       </c>
       <c r="B339" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C339" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D339" t="s">
-        <v>381</v>
+        <v>70</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B340" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C340" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D340" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B341" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C341" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D341" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
@@ -6276,13 +6283,13 @@
         <v>347</v>
       </c>
       <c r="B342" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C342" t="s">
-        <v>349</v>
+        <v>25</v>
       </c>
       <c r="D342" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
@@ -6290,13 +6297,13 @@
         <v>347</v>
       </c>
       <c r="B343" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C343" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D343" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
@@ -6304,13 +6311,13 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C344" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D344" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
@@ -6318,24 +6325,24 @@
         <v>347</v>
       </c>
       <c r="B345" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C345" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="D345" t="s">
-        <v>381</v>
+        <v>70</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B346" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="C346" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D346" t="s">
         <v>70</v>
@@ -6343,16 +6350,16 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B347" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C347" t="s">
-        <v>354</v>
+        <v>231</v>
       </c>
       <c r="D347" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
@@ -6360,13 +6367,13 @@
         <v>352</v>
       </c>
       <c r="B348" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="C348" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D348" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
@@ -6374,10 +6381,10 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C349" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D349" t="s">
         <v>52</v>
@@ -6388,24 +6395,24 @@
         <v>352</v>
       </c>
       <c r="B350" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C350" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D350" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B351" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C351" t="s">
-        <v>31</v>
+        <v>356</v>
       </c>
       <c r="D351" t="s">
         <v>52</v>
@@ -6413,16 +6420,16 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B352" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C352" t="s">
-        <v>32</v>
+        <v>357</v>
       </c>
       <c r="D352" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
@@ -6430,10 +6437,10 @@
         <v>358</v>
       </c>
       <c r="B353" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C353" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D353" t="s">
         <v>52</v>
@@ -6444,10 +6451,10 @@
         <v>358</v>
       </c>
       <c r="B354" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C354" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D354" t="s">
         <v>52</v>
@@ -6458,10 +6465,10 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C355" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D355" t="s">
         <v>52</v>
@@ -6472,10 +6479,10 @@
         <v>358</v>
       </c>
       <c r="B356" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C356" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D356" t="s">
         <v>52</v>
@@ -6486,10 +6493,10 @@
         <v>358</v>
       </c>
       <c r="B357" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C357" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D357" t="s">
         <v>52</v>
@@ -6500,10 +6507,10 @@
         <v>358</v>
       </c>
       <c r="B358" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C358" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D358" t="s">
         <v>52</v>
@@ -6514,13 +6521,13 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C359" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D359" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
@@ -6528,10 +6535,10 @@
         <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C360" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D360" t="s">
         <v>52</v>
@@ -6542,13 +6549,13 @@
         <v>358</v>
       </c>
       <c r="B361" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C361" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D361" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
@@ -6556,24 +6563,24 @@
         <v>358</v>
       </c>
       <c r="B362" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C362" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D362" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B363" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="C363" t="s">
-        <v>360</v>
+        <v>46</v>
       </c>
       <c r="D363" t="s">
         <v>70</v>
@@ -6581,41 +6588,41 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B364" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C364" t="s">
-        <v>361</v>
+        <v>48</v>
       </c>
       <c r="D364" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B365" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C365" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D365" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B366" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C366" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D366" t="s">
         <v>52</v>
@@ -6626,13 +6633,13 @@
         <v>362</v>
       </c>
       <c r="B367" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C367" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D367" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
@@ -6640,13 +6647,13 @@
         <v>362</v>
       </c>
       <c r="B368" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C368" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D368" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
@@ -6654,10 +6661,10 @@
         <v>362</v>
       </c>
       <c r="B369" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C369" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D369" t="s">
         <v>59</v>
@@ -6668,10 +6675,10 @@
         <v>362</v>
       </c>
       <c r="B370" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C370" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D370" t="s">
         <v>59</v>
@@ -6682,10 +6689,10 @@
         <v>362</v>
       </c>
       <c r="B371" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C371" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D371" t="s">
         <v>59</v>
@@ -6696,13 +6703,13 @@
         <v>362</v>
       </c>
       <c r="B372" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C372" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D372" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
@@ -6710,41 +6717,41 @@
         <v>362</v>
       </c>
       <c r="B373" t="s">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="C373" t="s">
-        <v>231</v>
+        <v>369</v>
       </c>
       <c r="D373" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B374" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C374" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D374" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B375" t="s">
-        <v>47</v>
+        <v>214</v>
       </c>
       <c r="C375" t="s">
-        <v>373</v>
+        <v>231</v>
       </c>
       <c r="D375" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
@@ -6752,13 +6759,13 @@
         <v>371</v>
       </c>
       <c r="B376" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="C376" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D376" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
@@ -6766,10 +6773,10 @@
         <v>371</v>
       </c>
       <c r="B377" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="C377" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D377" t="s">
         <v>52</v>
@@ -6780,13 +6787,13 @@
         <v>371</v>
       </c>
       <c r="B378" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="C378" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D378" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
@@ -6794,10 +6801,10 @@
         <v>371</v>
       </c>
       <c r="B379" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="C379" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D379" t="s">
         <v>52</v>
@@ -6808,13 +6815,13 @@
         <v>371</v>
       </c>
       <c r="B380" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C380" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D380" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
@@ -6822,13 +6829,63 @@
         <v>371</v>
       </c>
       <c r="B381" t="s">
+        <v>203</v>
+      </c>
+      <c r="C381" t="s">
+        <v>377</v>
+      </c>
+      <c r="D381" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>371</v>
+      </c>
+      <c r="B382" t="s">
+        <v>204</v>
+      </c>
+      <c r="C382" t="s">
+        <v>378</v>
+      </c>
+      <c r="D382" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>371</v>
+      </c>
+      <c r="B383" t="s">
         <v>379</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C383" t="s">
         <v>380</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D383" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>371</v>
+      </c>
+      <c r="B384" t="s">
+        <v>382</v>
+      </c>
+      <c r="D384" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>371</v>
+      </c>
+      <c r="B385" t="s">
+        <v>383</v>
+      </c>
+      <c r="D385" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/0_Data/9_Supplementary Information/Toilet.Codes.All_mapped.xlsx
+++ b/0_Data/9_Supplementary Information/Toilet.Codes.All_mapped.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="389">
   <si>
     <t>Country_long</t>
   </si>
@@ -1171,6 +1171,21 @@
   </si>
   <si>
     <t>NANA</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Yes and connected to sewage</t>
+  </si>
+  <si>
+    <t>Yes and not connected to sewage</t>
+  </si>
+  <si>
+    <t>No facility</t>
+  </si>
+  <si>
+    <t>Jordan</t>
   </si>
 </sst>
 </file>
@@ -1505,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D385"/>
+  <dimension ref="A1:D391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="B288" sqref="B288"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="E170" sqref="E1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2906,13 +2921,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>384</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>119</v>
+        <v>385</v>
       </c>
       <c r="D101" t="s">
         <v>52</v>
@@ -2920,30 +2935,30 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>384</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>120</v>
+        <v>386</v>
       </c>
       <c r="D102" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>384</v>
       </c>
       <c r="B103" t="s">
         <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>121</v>
+        <v>387</v>
       </c>
       <c r="D103" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -2951,10 +2966,10 @@
         <v>118</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D104" t="s">
         <v>52</v>
@@ -2965,10 +2980,10 @@
         <v>118</v>
       </c>
       <c r="B105" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D105" t="s">
         <v>52</v>
@@ -2979,13 +2994,13 @@
         <v>118</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D106" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -2993,10 +3008,10 @@
         <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C107" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D107" t="s">
         <v>52</v>
@@ -3007,10 +3022,10 @@
         <v>118</v>
       </c>
       <c r="B108" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D108" t="s">
         <v>52</v>
@@ -3021,13 +3036,13 @@
         <v>118</v>
       </c>
       <c r="B109" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C109" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D109" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -3035,10 +3050,10 @@
         <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C110" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D110" t="s">
         <v>52</v>
@@ -3048,25 +3063,25 @@
       <c r="A111" t="s">
         <v>118</v>
       </c>
-      <c r="B111" s="1">
-        <v>11</v>
+      <c r="B111" t="s">
+        <v>39</v>
       </c>
       <c r="C111" t="s">
-        <v>381</v>
+        <v>126</v>
       </c>
       <c r="D111" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C112" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D112" t="s">
         <v>52</v>
@@ -3074,13 +3089,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C113" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D113" t="s">
         <v>52</v>
@@ -3088,16 +3103,16 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>129</v>
-      </c>
-      <c r="B114" t="s">
-        <v>9</v>
+        <v>118</v>
+      </c>
+      <c r="B114" s="1">
+        <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>132</v>
+        <v>381</v>
       </c>
       <c r="D114" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -3105,13 +3120,13 @@
         <v>129</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D115" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -3119,13 +3134,13 @@
         <v>129</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D116" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -3133,10 +3148,10 @@
         <v>129</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D117" t="s">
         <v>52</v>
@@ -3147,10 +3162,10 @@
         <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C118" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D118" t="s">
         <v>59</v>
@@ -3161,10 +3176,10 @@
         <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C119" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D119" t="s">
         <v>59</v>
@@ -3175,13 +3190,13 @@
         <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C120" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D120" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -3189,10 +3204,10 @@
         <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C121" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D121" t="s">
         <v>59</v>
@@ -3203,10 +3218,10 @@
         <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C122" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D122" t="s">
         <v>59</v>
@@ -3217,10 +3232,10 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C123" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D123" t="s">
         <v>59</v>
@@ -3231,10 +3246,10 @@
         <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="C124" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D124" t="s">
         <v>59</v>
@@ -3245,10 +3260,10 @@
         <v>129</v>
       </c>
       <c r="B125" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="C125" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D125" t="s">
         <v>59</v>
@@ -3259,13 +3274,13 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="C126" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D126" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -3273,55 +3288,55 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C127" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D127" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="C128" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D128" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="C129" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D129" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="C130" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D130" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -3329,13 +3344,13 @@
         <v>150</v>
       </c>
       <c r="B131" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D131" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -3343,13 +3358,13 @@
         <v>150</v>
       </c>
       <c r="B132" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D132" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -3357,13 +3372,13 @@
         <v>150</v>
       </c>
       <c r="B133" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D133" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -3371,55 +3386,55 @@
         <v>150</v>
       </c>
       <c r="B134" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="D134" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C135" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D135" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C136" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D136" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C137" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="D137" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -3427,13 +3442,13 @@
         <v>157</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D138" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -3441,24 +3456,24 @@
         <v>157</v>
       </c>
       <c r="B139" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="D139" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D140" t="s">
         <v>52</v>
@@ -3466,30 +3481,30 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C141" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D141" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C142" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="D142" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -3497,10 +3512,10 @@
         <v>162</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D143" t="s">
         <v>52</v>
@@ -3511,10 +3526,10 @@
         <v>162</v>
       </c>
       <c r="B144" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D144" t="s">
         <v>52</v>
@@ -3525,10 +3540,10 @@
         <v>162</v>
       </c>
       <c r="B145" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D145" t="s">
         <v>52</v>
@@ -3539,10 +3554,10 @@
         <v>162</v>
       </c>
       <c r="B146" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C146" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D146" t="s">
         <v>52</v>
@@ -3553,10 +3568,10 @@
         <v>162</v>
       </c>
       <c r="B147" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C147" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D147" t="s">
         <v>52</v>
@@ -3567,13 +3582,13 @@
         <v>162</v>
       </c>
       <c r="B148" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C148" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D148" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -3581,10 +3596,10 @@
         <v>162</v>
       </c>
       <c r="B149" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C149" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D149" t="s">
         <v>52</v>
@@ -3595,13 +3610,13 @@
         <v>162</v>
       </c>
       <c r="B150" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C150" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D150" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -3609,24 +3624,24 @@
         <v>162</v>
       </c>
       <c r="B151" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C151" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D151" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C152" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D152" t="s">
         <v>52</v>
@@ -3634,30 +3649,30 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C153" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D153" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B154" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C154" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D154" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -3665,13 +3680,13 @@
         <v>175</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D155" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -3679,24 +3694,24 @@
         <v>175</v>
       </c>
       <c r="B156" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D156" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D157" t="s">
         <v>52</v>
@@ -3704,30 +3719,30 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C158" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D158" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B159" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C159" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D159" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -3735,10 +3750,10 @@
         <v>181</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D160" t="s">
         <v>52</v>
@@ -3749,13 +3764,13 @@
         <v>181</v>
       </c>
       <c r="B161" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D161" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -3763,13 +3778,13 @@
         <v>181</v>
       </c>
       <c r="B162" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D162" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -3777,13 +3792,13 @@
         <v>181</v>
       </c>
       <c r="B163" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C163" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D163" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -3791,13 +3806,13 @@
         <v>181</v>
       </c>
       <c r="B164" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C164" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D164" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -3805,13 +3820,13 @@
         <v>181</v>
       </c>
       <c r="B165" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C165" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D165" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
@@ -3819,13 +3834,13 @@
         <v>181</v>
       </c>
       <c r="B166" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C166" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D166" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -3833,13 +3848,13 @@
         <v>181</v>
       </c>
       <c r="B167" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C167" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D167" t="s">
-        <v>59</v>
+        <v>381</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
@@ -3847,13 +3862,13 @@
         <v>181</v>
       </c>
       <c r="B168" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C168" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D168" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -3861,10 +3876,10 @@
         <v>181</v>
       </c>
       <c r="B169" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="C169" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D169" t="s">
         <v>52</v>
@@ -3872,69 +3887,69 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B170" t="s">
         <v>45</v>
       </c>
       <c r="C170" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D170" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B171" t="s">
         <v>47</v>
       </c>
       <c r="C171" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D171" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B172" t="s">
         <v>142</v>
       </c>
       <c r="C172" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D172" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>195</v>
+        <v>388</v>
       </c>
       <c r="B173" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>199</v>
+        <v>385</v>
       </c>
       <c r="D173" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>388</v>
       </c>
       <c r="B174" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>200</v>
+        <v>386</v>
       </c>
       <c r="D174" t="s">
         <v>59</v>
@@ -3942,16 +3957,16 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>195</v>
+        <v>388</v>
       </c>
       <c r="B175" t="s">
-        <v>201</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>202</v>
+        <v>387</v>
       </c>
       <c r="D175" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -3959,13 +3974,13 @@
         <v>195</v>
       </c>
       <c r="B176" t="s">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="C176" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="D176" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
@@ -3973,13 +3988,13 @@
         <v>195</v>
       </c>
       <c r="B177" t="s">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="C177" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D177" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -3987,10 +4002,10 @@
         <v>195</v>
       </c>
       <c r="B178" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="C178" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D178" t="s">
         <v>59</v>
@@ -4001,10 +4016,10 @@
         <v>195</v>
       </c>
       <c r="B179" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="C179" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D179" t="s">
         <v>59</v>
@@ -4015,10 +4030,10 @@
         <v>195</v>
       </c>
       <c r="B180" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="C180" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D180" t="s">
         <v>59</v>
@@ -4029,13 +4044,13 @@
         <v>195</v>
       </c>
       <c r="B181" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C181" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D181" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
@@ -4043,52 +4058,52 @@
         <v>195</v>
       </c>
       <c r="B182" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C182" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="D182" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="C183" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D183" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="C184" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D184" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B185" t="s">
-        <v>9</v>
+        <v>208</v>
       </c>
       <c r="C185" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D185" t="s">
         <v>59</v>
@@ -4096,13 +4111,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B186" t="s">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="C186" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D186" t="s">
         <v>59</v>
@@ -4110,30 +4125,30 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B187" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="C187" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D187" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B188" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="C188" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="D188" t="s">
-        <v>70</v>
+        <v>381</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
@@ -4141,24 +4156,24 @@
         <v>215</v>
       </c>
       <c r="B189" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="D189" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="D190" t="s">
         <v>52</v>
@@ -4166,27 +4181,27 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D191" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B192" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C192" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D192" t="s">
         <v>59</v>
@@ -4194,13 +4209,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B193" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C193" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D193" t="s">
         <v>59</v>
@@ -4208,30 +4223,30 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B194" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C194" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D194" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B195" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C195" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="D195" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
@@ -4239,13 +4254,13 @@
         <v>222</v>
       </c>
       <c r="B196" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="D196" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
@@ -4253,13 +4268,13 @@
         <v>222</v>
       </c>
       <c r="B197" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="D197" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
@@ -4267,10 +4282,10 @@
         <v>222</v>
       </c>
       <c r="B198" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="D198" t="s">
         <v>59</v>
@@ -4281,10 +4296,10 @@
         <v>222</v>
       </c>
       <c r="B199" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C199" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D199" t="s">
         <v>59</v>
@@ -4295,10 +4310,10 @@
         <v>222</v>
       </c>
       <c r="B200" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C200" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D200" t="s">
         <v>59</v>
@@ -4309,13 +4324,13 @@
         <v>222</v>
       </c>
       <c r="B201" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C201" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D201" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
@@ -4323,38 +4338,38 @@
         <v>222</v>
       </c>
       <c r="B202" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="C202" t="s">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="D202" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C203" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D203" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C204" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="D204" t="s">
         <v>59</v>
@@ -4362,27 +4377,27 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C205" t="s">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="D205" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B206" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C206" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D206" t="s">
         <v>59</v>
@@ -4390,69 +4405,69 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B207" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C207" t="s">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="D207" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B208" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="C208" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="D208" t="s">
-        <v>70</v>
+        <v>381</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B209" t="s">
-        <v>237</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D209" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="D210" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="D211" t="s">
         <v>52</v>
@@ -4460,27 +4475,27 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B212" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C212" t="s">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="D212" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B213" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C213" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D213" t="s">
         <v>52</v>
@@ -4488,16 +4503,16 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B214" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C214" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="D214" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
@@ -4505,13 +4520,13 @@
         <v>236</v>
       </c>
       <c r="B215" t="s">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="C215" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D215" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
@@ -4519,10 +4534,10 @@
         <v>236</v>
       </c>
       <c r="B216" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="D216" t="s">
         <v>52</v>
@@ -4533,10 +4548,10 @@
         <v>236</v>
       </c>
       <c r="B217" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="D217" t="s">
         <v>52</v>
@@ -4547,13 +4562,13 @@
         <v>236</v>
       </c>
       <c r="B218" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D218" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
@@ -4561,10 +4576,10 @@
         <v>236</v>
       </c>
       <c r="B219" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C219" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D219" t="s">
         <v>52</v>
@@ -4575,13 +4590,13 @@
         <v>236</v>
       </c>
       <c r="B220" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C220" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="D220" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
@@ -4589,38 +4604,38 @@
         <v>236</v>
       </c>
       <c r="B221" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C221" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D221" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C222" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D222" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B223" t="s">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="C223" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D223" t="s">
         <v>52</v>
@@ -4628,58 +4643,58 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B224" t="s">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="C224" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="D224" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B225" t="s">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="C225" t="s">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="D225" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B226" t="s">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="C226" t="s">
-        <v>253</v>
+        <v>46</v>
       </c>
       <c r="D226" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B227" t="s">
-        <v>254</v>
+        <v>47</v>
       </c>
       <c r="C227" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D227" t="s">
-        <v>59</v>
+        <v>381</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
@@ -4687,24 +4702,24 @@
         <v>244</v>
       </c>
       <c r="B228" t="s">
-        <v>256</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D228" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>246</v>
       </c>
       <c r="C229" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D229" t="s">
         <v>52</v>
@@ -4712,27 +4727,27 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="C230" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D230" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B231" t="s">
-        <v>9</v>
+        <v>250</v>
       </c>
       <c r="C231" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D231" t="s">
         <v>59</v>
@@ -4740,13 +4755,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B232" t="s">
-        <v>17</v>
+        <v>252</v>
       </c>
       <c r="C232" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D232" t="s">
         <v>59</v>
@@ -4754,13 +4769,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B233" t="s">
-        <v>19</v>
+        <v>254</v>
       </c>
       <c r="C233" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D233" t="s">
         <v>59</v>
@@ -4768,16 +4783,16 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B234" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="C234" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D234" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
@@ -4785,13 +4800,13 @@
         <v>258</v>
       </c>
       <c r="B235" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D235" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
@@ -4799,13 +4814,13 @@
         <v>258</v>
       </c>
       <c r="B236" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D236" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
@@ -4813,10 +4828,10 @@
         <v>258</v>
       </c>
       <c r="B237" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D237" t="s">
         <v>59</v>
@@ -4824,55 +4839,55 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C238" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D238" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C239" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D239" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B240" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C240" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D240" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B241" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C241" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D241" t="s">
         <v>59</v>
@@ -4880,27 +4895,27 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B242" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C242" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="D242" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B243" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C243" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D243" t="s">
         <v>59</v>
@@ -4911,13 +4926,13 @@
         <v>268</v>
       </c>
       <c r="B244" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="D244" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
@@ -4925,13 +4940,13 @@
         <v>268</v>
       </c>
       <c r="B245" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="D245" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
@@ -4939,10 +4954,10 @@
         <v>268</v>
       </c>
       <c r="B246" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="D246" t="s">
         <v>59</v>
@@ -4953,10 +4968,10 @@
         <v>268</v>
       </c>
       <c r="B247" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C247" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D247" t="s">
         <v>59</v>
@@ -4967,13 +4982,13 @@
         <v>268</v>
       </c>
       <c r="B248" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C248" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="D248" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
@@ -4981,24 +4996,24 @@
         <v>268</v>
       </c>
       <c r="B249" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C249" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="D249" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C250" t="s">
-        <v>277</v>
+        <v>205</v>
       </c>
       <c r="D250" t="s">
         <v>59</v>
@@ -5006,72 +5021,72 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C251" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="D251" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B252" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C252" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="D252" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B253" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C253" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D253" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B254" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C254" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D254" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B255" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C255" t="s">
-        <v>94</v>
+        <v>231</v>
       </c>
       <c r="D255" t="s">
-        <v>70</v>
+        <v>381</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
@@ -5079,13 +5094,13 @@
         <v>276</v>
       </c>
       <c r="B256" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D256" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
@@ -5093,24 +5108,24 @@
         <v>276</v>
       </c>
       <c r="B257" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D257" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B258" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C258" t="s">
-        <v>102</v>
+        <v>279</v>
       </c>
       <c r="D258" t="s">
         <v>52</v>
@@ -5118,13 +5133,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B259" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C259" t="s">
-        <v>103</v>
+        <v>280</v>
       </c>
       <c r="D259" t="s">
         <v>52</v>
@@ -5132,58 +5147,58 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B260" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C260" t="s">
-        <v>104</v>
+        <v>281</v>
       </c>
       <c r="D260" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B261" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C261" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D261" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B262" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C262" t="s">
-        <v>35</v>
+        <v>282</v>
       </c>
       <c r="D262" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B263" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C263" t="s">
-        <v>36</v>
+        <v>283</v>
       </c>
       <c r="D263" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
@@ -5191,10 +5206,10 @@
         <v>284</v>
       </c>
       <c r="B264" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C264" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="D264" t="s">
         <v>52</v>
@@ -5205,10 +5220,10 @@
         <v>284</v>
       </c>
       <c r="B265" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C265" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="D265" t="s">
         <v>52</v>
@@ -5219,13 +5234,13 @@
         <v>284</v>
       </c>
       <c r="B266" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C266" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D266" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -5233,10 +5248,10 @@
         <v>284</v>
       </c>
       <c r="B267" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C267" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="D267" t="s">
         <v>52</v>
@@ -5247,13 +5262,13 @@
         <v>284</v>
       </c>
       <c r="B268" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C268" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D268" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
@@ -5261,24 +5276,24 @@
         <v>284</v>
       </c>
       <c r="B269" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C269" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="D269" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B270" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C270" t="s">
-        <v>286</v>
+        <v>38</v>
       </c>
       <c r="D270" t="s">
         <v>52</v>
@@ -5286,13 +5301,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B271" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C271" t="s">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="D271" t="s">
         <v>52</v>
@@ -5300,13 +5315,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B272" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C272" t="s">
-        <v>288</v>
+        <v>42</v>
       </c>
       <c r="D272" t="s">
         <v>59</v>
@@ -5314,44 +5329,44 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B273" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C273" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="D273" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B274" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C274" t="s">
-        <v>289</v>
+        <v>46</v>
       </c>
       <c r="D274" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B275" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C275" t="s">
-        <v>290</v>
+        <v>106</v>
       </c>
       <c r="D275" t="s">
-        <v>59</v>
+        <v>381</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
@@ -5359,13 +5374,13 @@
         <v>285</v>
       </c>
       <c r="B276" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C276" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D276" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
@@ -5373,13 +5388,13 @@
         <v>285</v>
       </c>
       <c r="B277" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C277" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D277" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -5387,10 +5402,10 @@
         <v>285</v>
       </c>
       <c r="B278" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C278" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D278" t="s">
         <v>59</v>
@@ -5401,10 +5416,10 @@
         <v>285</v>
       </c>
       <c r="B279" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C279" t="s">
-        <v>294</v>
+        <v>133</v>
       </c>
       <c r="D279" t="s">
         <v>59</v>
@@ -5415,10 +5430,10 @@
         <v>285</v>
       </c>
       <c r="B280" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C280" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D280" t="s">
         <v>59</v>
@@ -5429,13 +5444,13 @@
         <v>285</v>
       </c>
       <c r="B281" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C281" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D281" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
@@ -5443,38 +5458,38 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="C282" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D282" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C283" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D283" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B284" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C284" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D284" t="s">
         <v>59</v>
@@ -5482,13 +5497,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C285" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D285" t="s">
         <v>59</v>
@@ -5496,13 +5511,13 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C286" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D286" t="s">
         <v>59</v>
@@ -5510,13 +5525,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C287" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D287" t="s">
         <v>70</v>
@@ -5524,13 +5539,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>298</v>
-      </c>
-      <c r="B288" s="1">
-        <v>6</v>
+        <v>285</v>
+      </c>
+      <c r="B288" t="s">
+        <v>142</v>
       </c>
       <c r="C288" t="s">
-        <v>381</v>
+        <v>297</v>
       </c>
       <c r="D288" t="s">
         <v>381</v>
@@ -5538,13 +5553,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
       </c>
       <c r="C289" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D289" t="s">
         <v>52</v>
@@ -5552,41 +5567,41 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
       </c>
       <c r="C290" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D290" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B291" t="s">
         <v>9</v>
       </c>
       <c r="C291" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D291" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B292" t="s">
         <v>17</v>
       </c>
       <c r="C292" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D292" t="s">
         <v>59</v>
@@ -5594,30 +5609,30 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B293" t="s">
         <v>19</v>
       </c>
       <c r="C293" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D293" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>304</v>
-      </c>
-      <c r="B294" t="s">
-        <v>21</v>
+        <v>298</v>
+      </c>
+      <c r="B294" s="1">
+        <v>6</v>
       </c>
       <c r="C294" t="s">
-        <v>310</v>
+        <v>381</v>
       </c>
       <c r="D294" t="s">
-        <v>59</v>
+        <v>381</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
@@ -5625,13 +5640,13 @@
         <v>304</v>
       </c>
       <c r="B295" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C295" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D295" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
@@ -5639,13 +5654,13 @@
         <v>304</v>
       </c>
       <c r="B296" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C296" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D296" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
@@ -5653,38 +5668,38 @@
         <v>304</v>
       </c>
       <c r="B297" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C297" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D297" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B298" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C298" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D298" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B299" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C299" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D299" t="s">
         <v>52</v>
@@ -5692,58 +5707,58 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B300" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C300" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D300" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C301" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D301" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C302" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D302" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B303" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C303" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D303" t="s">
-        <v>59</v>
+        <v>381</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
@@ -5751,13 +5766,13 @@
         <v>314</v>
       </c>
       <c r="B304" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C304" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D304" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
@@ -5765,38 +5780,38 @@
         <v>314</v>
       </c>
       <c r="B305" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C305" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D305" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B306" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="C306" t="s">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="D306" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B307" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C307" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D307" t="s">
         <v>52</v>
@@ -5804,13 +5819,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B308" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C308" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D308" t="s">
         <v>52</v>
@@ -5818,44 +5833,44 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B309" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C309" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D309" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B310" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C310" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D310" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C311" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D311" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
@@ -5863,13 +5878,13 @@
         <v>323</v>
       </c>
       <c r="B312" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="C312" t="s">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="D312" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
@@ -5877,24 +5892,24 @@
         <v>323</v>
       </c>
       <c r="B313" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C313" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D313" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B314" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C314" t="s">
-        <v>216</v>
+        <v>325</v>
       </c>
       <c r="D314" t="s">
         <v>52</v>
@@ -5902,83 +5917,83 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B315" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C315" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D315" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B316" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C316" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D316" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B317" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C317" t="s">
-        <v>29</v>
+        <v>328</v>
       </c>
       <c r="D317" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B318" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C318" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D318" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B319" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C319" t="s">
-        <v>31</v>
+        <v>330</v>
       </c>
       <c r="D319" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B320" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C320" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="D320" t="s">
         <v>52</v>
@@ -5986,58 +6001,58 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B321" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C321" t="s">
-        <v>33</v>
+        <v>332</v>
       </c>
       <c r="D321" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B322" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C322" t="s">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="D322" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B323" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C323" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D323" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B324" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C324" t="s">
-        <v>36</v>
+        <v>334</v>
       </c>
       <c r="D324" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
@@ -6045,10 +6060,10 @@
         <v>335</v>
       </c>
       <c r="B325" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C325" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D325" t="s">
         <v>52</v>
@@ -6059,10 +6074,10 @@
         <v>335</v>
       </c>
       <c r="B326" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C326" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D326" t="s">
         <v>52</v>
@@ -6073,13 +6088,13 @@
         <v>335</v>
       </c>
       <c r="B327" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C327" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D327" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
@@ -6087,10 +6102,10 @@
         <v>335</v>
       </c>
       <c r="B328" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C328" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D328" t="s">
         <v>52</v>
@@ -6101,13 +6116,13 @@
         <v>335</v>
       </c>
       <c r="B329" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C329" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D329" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
@@ -6115,24 +6130,24 @@
         <v>335</v>
       </c>
       <c r="B330" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C330" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D330" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B331" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C331" t="s">
-        <v>337</v>
+        <v>38</v>
       </c>
       <c r="D331" t="s">
         <v>52</v>
@@ -6140,13 +6155,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C332" t="s">
-        <v>338</v>
+        <v>40</v>
       </c>
       <c r="D332" t="s">
         <v>52</v>
@@ -6154,27 +6169,27 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C333" t="s">
-        <v>339</v>
+        <v>42</v>
       </c>
       <c r="D333" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B334" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C334" t="s">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="D334" t="s">
         <v>52</v>
@@ -6182,30 +6197,30 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B335" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C335" t="s">
-        <v>341</v>
+        <v>46</v>
       </c>
       <c r="D335" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C336" t="s">
-        <v>342</v>
+        <v>48</v>
       </c>
       <c r="D336" t="s">
-        <v>59</v>
+        <v>381</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
@@ -6213,13 +6228,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C337" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D337" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
@@ -6227,10 +6242,10 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C338" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D338" t="s">
         <v>52</v>
@@ -6241,13 +6256,13 @@
         <v>336</v>
       </c>
       <c r="B339" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C339" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D339" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
@@ -6255,13 +6270,13 @@
         <v>336</v>
       </c>
       <c r="B340" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C340" t="s">
-        <v>29</v>
+        <v>340</v>
       </c>
       <c r="D340" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
@@ -6269,66 +6284,66 @@
         <v>336</v>
       </c>
       <c r="B341" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C341" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D341" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B342" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C342" t="s">
-        <v>25</v>
+        <v>342</v>
       </c>
       <c r="D342" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B343" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C343" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D343" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B344" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C344" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D344" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B345" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C345" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D345" t="s">
         <v>70</v>
@@ -6336,27 +6351,27 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B346" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C346" t="s">
-        <v>351</v>
+        <v>29</v>
       </c>
       <c r="D346" t="s">
-        <v>70</v>
+        <v>381</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B347" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C347" t="s">
-        <v>231</v>
+        <v>346</v>
       </c>
       <c r="D347" t="s">
         <v>381</v>
@@ -6364,27 +6379,27 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C348" t="s">
-        <v>353</v>
+        <v>25</v>
       </c>
       <c r="D348" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C349" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D349" t="s">
         <v>52</v>
@@ -6392,83 +6407,83 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B350" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C350" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D350" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B351" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C351" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D351" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B352" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C352" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D352" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B353" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C353" t="s">
-        <v>31</v>
+        <v>231</v>
       </c>
       <c r="D353" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="C354" t="s">
-        <v>32</v>
+        <v>353</v>
       </c>
       <c r="D354" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B355" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C355" t="s">
-        <v>33</v>
+        <v>354</v>
       </c>
       <c r="D355" t="s">
         <v>52</v>
@@ -6476,13 +6491,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B356" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C356" t="s">
-        <v>34</v>
+        <v>355</v>
       </c>
       <c r="D356" t="s">
         <v>52</v>
@@ -6490,13 +6505,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B357" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C357" t="s">
-        <v>35</v>
+        <v>356</v>
       </c>
       <c r="D357" t="s">
         <v>52</v>
@@ -6504,16 +6519,16 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B358" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C358" t="s">
-        <v>36</v>
+        <v>357</v>
       </c>
       <c r="D358" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
@@ -6521,10 +6536,10 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C359" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D359" t="s">
         <v>52</v>
@@ -6535,10 +6550,10 @@
         <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C360" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D360" t="s">
         <v>52</v>
@@ -6549,13 +6564,13 @@
         <v>358</v>
       </c>
       <c r="B361" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C361" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D361" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
@@ -6563,10 +6578,10 @@
         <v>358</v>
       </c>
       <c r="B362" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C362" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D362" t="s">
         <v>52</v>
@@ -6577,13 +6592,13 @@
         <v>358</v>
       </c>
       <c r="B363" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C363" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D363" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
@@ -6591,38 +6606,38 @@
         <v>358</v>
       </c>
       <c r="B364" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C364" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D364" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B365" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C365" t="s">
-        <v>360</v>
+        <v>38</v>
       </c>
       <c r="D365" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B366" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C366" t="s">
-        <v>361</v>
+        <v>40</v>
       </c>
       <c r="D366" t="s">
         <v>52</v>
@@ -6630,27 +6645,27 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B367" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C367" t="s">
-        <v>363</v>
+        <v>42</v>
       </c>
       <c r="D367" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B368" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C368" t="s">
-        <v>364</v>
+        <v>44</v>
       </c>
       <c r="D368" t="s">
         <v>52</v>
@@ -6658,58 +6673,58 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B369" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C369" t="s">
-        <v>365</v>
+        <v>46</v>
       </c>
       <c r="D369" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B370" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C370" t="s">
-        <v>366</v>
+        <v>48</v>
       </c>
       <c r="D370" t="s">
-        <v>59</v>
+        <v>381</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B371" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="C371" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D371" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B372" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C372" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D372" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
@@ -6717,13 +6732,13 @@
         <v>362</v>
       </c>
       <c r="B373" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C373" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D373" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
@@ -6731,13 +6746,13 @@
         <v>362</v>
       </c>
       <c r="B374" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C374" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D374" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
@@ -6745,52 +6760,52 @@
         <v>362</v>
       </c>
       <c r="B375" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="C375" t="s">
-        <v>231</v>
+        <v>365</v>
       </c>
       <c r="D375" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B376" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C376" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D376" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B377" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C377" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D377" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B378" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="C378" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D378" t="s">
         <v>59</v>
@@ -6798,44 +6813,44 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B379" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="C379" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D379" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B380" t="s">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="C380" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D380" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B381" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C381" t="s">
-        <v>377</v>
+        <v>231</v>
       </c>
       <c r="D381" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
@@ -6843,13 +6858,13 @@
         <v>371</v>
       </c>
       <c r="B382" t="s">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="C382" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D382" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
@@ -6857,13 +6872,13 @@
         <v>371</v>
       </c>
       <c r="B383" t="s">
-        <v>379</v>
+        <v>47</v>
       </c>
       <c r="C383" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D383" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
@@ -6871,10 +6886,13 @@
         <v>371</v>
       </c>
       <c r="B384" t="s">
-        <v>382</v>
+        <v>142</v>
+      </c>
+      <c r="C384" t="s">
+        <v>374</v>
       </c>
       <c r="D384" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
@@ -6882,9 +6900,90 @@
         <v>371</v>
       </c>
       <c r="B385" t="s">
+        <v>144</v>
+      </c>
+      <c r="C385" t="s">
+        <v>375</v>
+      </c>
+      <c r="D385" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>371</v>
+      </c>
+      <c r="B386" t="s">
+        <v>201</v>
+      </c>
+      <c r="C386" t="s">
+        <v>376</v>
+      </c>
+      <c r="D386" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>371</v>
+      </c>
+      <c r="B387" t="s">
+        <v>203</v>
+      </c>
+      <c r="C387" t="s">
+        <v>377</v>
+      </c>
+      <c r="D387" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>371</v>
+      </c>
+      <c r="B388" t="s">
+        <v>204</v>
+      </c>
+      <c r="C388" t="s">
+        <v>378</v>
+      </c>
+      <c r="D388" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>371</v>
+      </c>
+      <c r="B389" t="s">
+        <v>379</v>
+      </c>
+      <c r="C389" t="s">
+        <v>380</v>
+      </c>
+      <c r="D389" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>371</v>
+      </c>
+      <c r="B390" t="s">
+        <v>382</v>
+      </c>
+      <c r="D390" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>371</v>
+      </c>
+      <c r="B391" t="s">
         <v>383</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D391" t="s">
         <v>381</v>
       </c>
     </row>

--- a/0_Data/9_Supplementary Information/Toilet.Codes.All_mapped.xlsx
+++ b/0_Data/9_Supplementary Information/Toilet.Codes.All_mapped.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="397">
   <si>
     <t>Country_long</t>
   </si>
@@ -1186,6 +1186,30 @@
   </si>
   <si>
     <t>Jordan</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Septic tank</t>
+  </si>
+  <si>
+    <t>Suilabh</t>
+  </si>
+  <si>
+    <t>Improved toilet with vent</t>
+  </si>
+  <si>
+    <t>Double septic tank</t>
+  </si>
+  <si>
+    <t>Barrel/pot</t>
+  </si>
+  <si>
+    <t>Fishing bridge</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -1520,10 +1544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D391"/>
+  <dimension ref="A1:D399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="E170" sqref="E1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="A392" sqref="A392:D399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6987,6 +7011,118 @@
         <v>381</v>
       </c>
     </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>389</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392" t="s">
+        <v>390</v>
+      </c>
+      <c r="D392" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>389</v>
+      </c>
+      <c r="B393">
+        <v>2</v>
+      </c>
+      <c r="C393" t="s">
+        <v>391</v>
+      </c>
+      <c r="D393" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>389</v>
+      </c>
+      <c r="B394">
+        <v>3</v>
+      </c>
+      <c r="C394" t="s">
+        <v>392</v>
+      </c>
+      <c r="D394" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>389</v>
+      </c>
+      <c r="B395">
+        <v>4</v>
+      </c>
+      <c r="C395" t="s">
+        <v>393</v>
+      </c>
+      <c r="D395" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>389</v>
+      </c>
+      <c r="B396">
+        <v>5</v>
+      </c>
+      <c r="C396" t="s">
+        <v>394</v>
+      </c>
+      <c r="D396" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>389</v>
+      </c>
+      <c r="B397">
+        <v>6</v>
+      </c>
+      <c r="C397" t="s">
+        <v>395</v>
+      </c>
+      <c r="D397" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>389</v>
+      </c>
+      <c r="B398">
+        <v>7</v>
+      </c>
+      <c r="C398" t="s">
+        <v>396</v>
+      </c>
+      <c r="D398" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>389</v>
+      </c>
+      <c r="B399">
+        <v>8</v>
+      </c>
+      <c r="C399" t="s">
+        <v>78</v>
+      </c>
+      <c r="D399" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/0_Data/9_Supplementary Information/Toilet.Codes.All_mapped.xlsx
+++ b/0_Data/9_Supplementary Information/Toilet.Codes.All_mapped.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="412">
   <si>
     <t>Country_long</t>
   </si>
@@ -1210,6 +1210,51 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>RETRETE LIGADA A FOSSA SÃ‰PTICA,Basic</t>
+  </si>
+  <si>
+    <t>LATRINA MELHORADA,Basic</t>
+  </si>
+  <si>
+    <t>LATRINA TRADICIONAL MELHORADA,Basic</t>
+  </si>
+  <si>
+    <t>LATRINA NÃƒO MELHORADA,Limited</t>
+  </si>
+  <si>
+    <t>NÃƒO TEM RETRETE/LATRINA,No Service</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Own flush toilet connected to the sewerage system</t>
+  </si>
+  <si>
+    <t>Shared flush toilet connected to the sewerage system</t>
+  </si>
+  <si>
+    <t>"Flush latrine not connected to the sewerage system (connected to the river, channel, ravine, etc.)"</t>
+  </si>
+  <si>
+    <t>Pit latrine periodically cleaned or finally filled up and buried</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Has central sewerage</t>
+  </si>
+  <si>
+    <t>Has no central sewerage</t>
+  </si>
+  <si>
+    <t>Does not know</t>
   </si>
 </sst>
 </file>
@@ -1544,14 +1589,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D399"/>
+  <dimension ref="A1:D412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="A392" sqref="A392:D399"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="D331" sqref="D331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="10.90625" style="1"/>
     <col min="3" max="3" width="81.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1559,7 +1605,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1573,7 +1619,7 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -1587,7 +1633,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
@@ -1601,7 +1647,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
@@ -1615,7 +1661,7 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
@@ -1637,7 +1683,7 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
@@ -1651,7 +1697,7 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -1665,7 +1711,7 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
@@ -1679,7 +1725,7 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
@@ -1693,7 +1739,7 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
@@ -1707,7 +1753,7 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
@@ -1721,7 +1767,7 @@
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
@@ -1735,7 +1781,7 @@
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
@@ -1749,7 +1795,7 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
@@ -1763,7 +1809,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
@@ -1777,7 +1823,7 @@
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
@@ -1791,7 +1837,7 @@
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
@@ -1805,7 +1851,7 @@
       <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
@@ -1819,7 +1865,7 @@
       <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
@@ -1833,7 +1879,7 @@
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
@@ -1847,7 +1893,7 @@
       <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
@@ -1861,7 +1907,7 @@
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
@@ -1875,7 +1921,7 @@
       <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C24" t="s">
@@ -1889,7 +1935,7 @@
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C25" t="s">
@@ -1903,7 +1949,7 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C26" t="s">
@@ -1917,7 +1963,7 @@
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C27" t="s">
@@ -1931,7 +1977,7 @@
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C28" t="s">
@@ -1945,7 +1991,7 @@
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C29" t="s">
@@ -1959,7 +2005,7 @@
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C30" t="s">
@@ -1973,7 +2019,7 @@
       <c r="A31" t="s">
         <v>49</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C31" t="s">
@@ -1987,7 +2033,7 @@
       <c r="A32" t="s">
         <v>49</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C32" t="s">
@@ -2001,7 +2047,7 @@
       <c r="A33" t="s">
         <v>49</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C33" t="s">
@@ -2015,7 +2061,7 @@
       <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C34" t="s">
@@ -2029,7 +2075,7 @@
       <c r="A35" t="s">
         <v>49</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C35" t="s">
@@ -2043,7 +2089,7 @@
       <c r="A36" t="s">
         <v>49</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C36" t="s">
@@ -2057,7 +2103,7 @@
       <c r="A37" t="s">
         <v>49</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C37" t="s">
@@ -2071,7 +2117,7 @@
       <c r="A38" t="s">
         <v>49</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C38" t="s">
@@ -2085,7 +2131,7 @@
       <c r="A39" t="s">
         <v>49</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C39" t="s">
@@ -2099,7 +2145,7 @@
       <c r="A40" t="s">
         <v>71</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C40" t="s">
@@ -2113,7 +2159,7 @@
       <c r="A41" t="s">
         <v>71</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="s">
@@ -2127,7 +2173,7 @@
       <c r="A42" t="s">
         <v>71</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C42" t="s">
@@ -2141,7 +2187,7 @@
       <c r="A43" t="s">
         <v>71</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C43" t="s">
@@ -2155,7 +2201,7 @@
       <c r="A44" t="s">
         <v>71</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C44" t="s">
@@ -2177,7 +2223,7 @@
       <c r="A46" t="s">
         <v>76</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
@@ -2191,7 +2237,7 @@
       <c r="A47" t="s">
         <v>76</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
@@ -2205,7 +2251,7 @@
       <c r="A48" t="s">
         <v>76</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -2219,7 +2265,7 @@
       <c r="A49" t="s">
         <v>76</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C49" t="s">
@@ -2233,7 +2279,7 @@
       <c r="A50" t="s">
         <v>76</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C50" t="s">
@@ -2247,7 +2293,7 @@
       <c r="A51" t="s">
         <v>76</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C51" t="s">
@@ -2261,7 +2307,7 @@
       <c r="A52" t="s">
         <v>76</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C52" t="s">
@@ -2275,7 +2321,7 @@
       <c r="A53" t="s">
         <v>76</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C53" t="s">
@@ -2289,7 +2335,7 @@
       <c r="A54" t="s">
         <v>76</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C54" t="s">
@@ -2303,7 +2349,7 @@
       <c r="A55" t="s">
         <v>76</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C55" t="s">
@@ -2317,7 +2363,7 @@
       <c r="A56" t="s">
         <v>76</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C56" t="s">
@@ -2331,7 +2377,7 @@
       <c r="A57" t="s">
         <v>76</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C57" t="s">
@@ -2345,7 +2391,7 @@
       <c r="A58" t="s">
         <v>77</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="s">
@@ -2359,7 +2405,7 @@
       <c r="A59" t="s">
         <v>77</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
@@ -2373,7 +2419,7 @@
       <c r="A60" t="s">
         <v>77</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C60" t="s">
@@ -2387,7 +2433,7 @@
       <c r="A61" t="s">
         <v>77</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C61" t="s">
@@ -2401,7 +2447,7 @@
       <c r="A62" t="s">
         <v>77</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C62" t="s">
@@ -2415,7 +2461,7 @@
       <c r="A63" t="s">
         <v>77</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C63" t="s">
@@ -2429,7 +2475,7 @@
       <c r="A64" t="s">
         <v>77</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C64" t="s">
@@ -2443,7 +2489,7 @@
       <c r="A65" t="s">
         <v>77</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C65" t="s">
@@ -2457,7 +2503,7 @@
       <c r="A66" t="s">
         <v>85</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="s">
@@ -2471,7 +2517,7 @@
       <c r="A67" t="s">
         <v>85</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C67" t="s">
@@ -2485,7 +2531,7 @@
       <c r="A68" t="s">
         <v>85</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C68" t="s">
@@ -2499,7 +2545,7 @@
       <c r="A69" t="s">
         <v>85</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C69" t="s">
@@ -2513,7 +2559,7 @@
       <c r="A70" t="s">
         <v>85</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C70" t="s">
@@ -2527,7 +2573,7 @@
       <c r="A71" t="s">
         <v>85</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C71" t="s">
@@ -2541,7 +2587,7 @@
       <c r="A72" t="s">
         <v>92</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C72" t="s">
@@ -2555,7 +2601,7 @@
       <c r="A73" t="s">
         <v>92</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C73" t="s">
@@ -2569,7 +2615,7 @@
       <c r="A74" t="s">
         <v>92</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C74" t="s">
@@ -2583,7 +2629,7 @@
       <c r="A75" t="s">
         <v>92</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C75" t="s">
@@ -2597,7 +2643,7 @@
       <c r="A76" t="s">
         <v>92</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C76" t="s">
@@ -2611,7 +2657,7 @@
       <c r="A77" t="s">
         <v>92</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C77" t="s">
@@ -2625,7 +2671,7 @@
       <c r="A78" t="s">
         <v>92</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C78" t="s">
@@ -2639,7 +2685,7 @@
       <c r="A79" t="s">
         <v>101</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C79" t="s">
@@ -2653,7 +2699,7 @@
       <c r="A80" t="s">
         <v>101</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C80" t="s">
@@ -2667,7 +2713,7 @@
       <c r="A81" t="s">
         <v>101</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C81" t="s">
@@ -2681,7 +2727,7 @@
       <c r="A82" t="s">
         <v>101</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C82" t="s">
@@ -2695,7 +2741,7 @@
       <c r="A83" t="s">
         <v>101</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C83" t="s">
@@ -2709,7 +2755,7 @@
       <c r="A84" t="s">
         <v>101</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C84" t="s">
@@ -2723,7 +2769,7 @@
       <c r="A85" t="s">
         <v>101</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C85" t="s">
@@ -2737,7 +2783,7 @@
       <c r="A86" t="s">
         <v>101</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C86" t="s">
@@ -2751,7 +2797,7 @@
       <c r="A87" t="s">
         <v>101</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C87" t="s">
@@ -2765,7 +2811,7 @@
       <c r="A88" t="s">
         <v>101</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C88" t="s">
@@ -2779,7 +2825,7 @@
       <c r="A89" t="s">
         <v>101</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C89" t="s">
@@ -2793,7 +2839,7 @@
       <c r="A90" t="s">
         <v>101</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C90" t="s">
@@ -2807,7 +2853,7 @@
       <c r="A91" t="s">
         <v>107</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
@@ -2821,7 +2867,7 @@
       <c r="A92" t="s">
         <v>107</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C92" t="s">
@@ -2835,7 +2881,7 @@
       <c r="A93" t="s">
         <v>107</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C93" t="s">
@@ -2849,7 +2895,7 @@
       <c r="A94" t="s">
         <v>107</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C94" t="s">
@@ -2863,7 +2909,7 @@
       <c r="A95" t="s">
         <v>107</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C95" t="s">
@@ -2877,7 +2923,7 @@
       <c r="A96" t="s">
         <v>113</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C96" t="s">
@@ -2891,7 +2937,7 @@
       <c r="A97" t="s">
         <v>113</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C97" t="s">
@@ -2905,7 +2951,7 @@
       <c r="A98" t="s">
         <v>113</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C98" t="s">
@@ -2919,7 +2965,7 @@
       <c r="A99" t="s">
         <v>113</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C99" t="s">
@@ -2933,7 +2979,7 @@
       <c r="A100" t="s">
         <v>113</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C100" t="s">
@@ -2947,7 +2993,7 @@
       <c r="A101" t="s">
         <v>384</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C101" t="s">
@@ -2961,7 +3007,7 @@
       <c r="A102" t="s">
         <v>384</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C102" t="s">
@@ -2975,7 +3021,7 @@
       <c r="A103" t="s">
         <v>384</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C103" t="s">
@@ -2989,7 +3035,7 @@
       <c r="A104" t="s">
         <v>118</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C104" t="s">
@@ -3003,7 +3049,7 @@
       <c r="A105" t="s">
         <v>118</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C105" t="s">
@@ -3017,7 +3063,7 @@
       <c r="A106" t="s">
         <v>118</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C106" t="s">
@@ -3031,7 +3077,7 @@
       <c r="A107" t="s">
         <v>118</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C107" t="s">
@@ -3045,7 +3091,7 @@
       <c r="A108" t="s">
         <v>118</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C108" t="s">
@@ -3059,7 +3105,7 @@
       <c r="A109" t="s">
         <v>118</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C109" t="s">
@@ -3073,7 +3119,7 @@
       <c r="A110" t="s">
         <v>118</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C110" t="s">
@@ -3087,7 +3133,7 @@
       <c r="A111" t="s">
         <v>118</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C111" t="s">
@@ -3101,7 +3147,7 @@
       <c r="A112" t="s">
         <v>118</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C112" t="s">
@@ -3115,7 +3161,7 @@
       <c r="A113" t="s">
         <v>118</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C113" t="s">
@@ -3143,7 +3189,7 @@
       <c r="A115" t="s">
         <v>129</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C115" t="s">
@@ -3157,7 +3203,7 @@
       <c r="A116" t="s">
         <v>129</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C116" t="s">
@@ -3171,7 +3217,7 @@
       <c r="A117" t="s">
         <v>129</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C117" t="s">
@@ -3185,7 +3231,7 @@
       <c r="A118" t="s">
         <v>129</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C118" t="s">
@@ -3199,7 +3245,7 @@
       <c r="A119" t="s">
         <v>129</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C119" t="s">
@@ -3213,7 +3259,7 @@
       <c r="A120" t="s">
         <v>129</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C120" t="s">
@@ -3227,7 +3273,7 @@
       <c r="A121" t="s">
         <v>129</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C121" t="s">
@@ -3241,7 +3287,7 @@
       <c r="A122" t="s">
         <v>129</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C122" t="s">
@@ -3255,7 +3301,7 @@
       <c r="A123" t="s">
         <v>129</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C123" t="s">
@@ -3269,7 +3315,7 @@
       <c r="A124" t="s">
         <v>129</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C124" t="s">
@@ -3283,7 +3329,7 @@
       <c r="A125" t="s">
         <v>129</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C125" t="s">
@@ -3297,7 +3343,7 @@
       <c r="A126" t="s">
         <v>129</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C126" t="s">
@@ -3311,7 +3357,7 @@
       <c r="A127" t="s">
         <v>129</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C127" t="s">
@@ -3325,7 +3371,7 @@
       <c r="A128" t="s">
         <v>129</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C128" t="s">
@@ -3339,7 +3385,7 @@
       <c r="A129" t="s">
         <v>129</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C129" t="s">
@@ -3353,7 +3399,7 @@
       <c r="A130" t="s">
         <v>129</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C130" t="s">
@@ -3365,27 +3411,27 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>150</v>
-      </c>
-      <c r="B131" t="s">
+        <v>403</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>151</v>
+        <v>404</v>
       </c>
       <c r="D131" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>150</v>
-      </c>
-      <c r="B132" t="s">
+        <v>403</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>152</v>
+        <v>405</v>
       </c>
       <c r="D132" t="s">
         <v>52</v>
@@ -3393,27 +3439,27 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>150</v>
-      </c>
-      <c r="B133" t="s">
+        <v>403</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>153</v>
+        <v>406</v>
       </c>
       <c r="D133" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>150</v>
-      </c>
-      <c r="B134" t="s">
+        <v>403</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C134" t="s">
-        <v>154</v>
+        <v>407</v>
       </c>
       <c r="D134" t="s">
         <v>59</v>
@@ -3421,55 +3467,55 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>150</v>
-      </c>
-      <c r="B135" t="s">
+        <v>403</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C135" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="D135" t="s">
-        <v>59</v>
+        <v>381</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>150</v>
       </c>
-      <c r="B136" t="s">
-        <v>21</v>
+      <c r="B136" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D136" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>150</v>
       </c>
-      <c r="B137" t="s">
-        <v>37</v>
+      <c r="B137" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="D137" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>157</v>
-      </c>
-      <c r="B138" t="s">
-        <v>5</v>
+        <v>150</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D138" t="s">
         <v>52</v>
@@ -3477,41 +3523,41 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>157</v>
-      </c>
-      <c r="B139" t="s">
-        <v>7</v>
+        <v>150</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C139" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D139" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>157</v>
-      </c>
-      <c r="B140" t="s">
-        <v>9</v>
+        <v>150</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C140" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D140" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>157</v>
-      </c>
-      <c r="B141" t="s">
-        <v>17</v>
+        <v>150</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C141" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D141" t="s">
         <v>59</v>
@@ -3519,27 +3565,27 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>157</v>
-      </c>
-      <c r="B142" t="s">
-        <v>19</v>
+        <v>150</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C142" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D142" t="s">
-        <v>70</v>
+        <v>381</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>162</v>
-      </c>
-      <c r="B143" t="s">
+        <v>157</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D143" t="s">
         <v>52</v>
@@ -3547,13 +3593,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>162</v>
-      </c>
-      <c r="B144" t="s">
+        <v>157</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D144" t="s">
         <v>52</v>
@@ -3561,13 +3607,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>162</v>
-      </c>
-      <c r="B145" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D145" t="s">
         <v>52</v>
@@ -3575,41 +3621,41 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>162</v>
-      </c>
-      <c r="B146" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C146" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D146" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>162</v>
-      </c>
-      <c r="B147" t="s">
+        <v>157</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C147" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="D147" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>162</v>
       </c>
-      <c r="B148" t="s">
-        <v>21</v>
+      <c r="B148" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D148" t="s">
         <v>52</v>
@@ -3619,11 +3665,11 @@
       <c r="A149" t="s">
         <v>162</v>
       </c>
-      <c r="B149" t="s">
-        <v>37</v>
+      <c r="B149" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D149" t="s">
         <v>52</v>
@@ -3633,11 +3679,11 @@
       <c r="A150" t="s">
         <v>162</v>
       </c>
-      <c r="B150" t="s">
-        <v>39</v>
+      <c r="B150" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D150" t="s">
         <v>52</v>
@@ -3647,25 +3693,25 @@
       <c r="A151" t="s">
         <v>162</v>
       </c>
-      <c r="B151" t="s">
-        <v>41</v>
+      <c r="B151" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C151" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D151" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>162</v>
       </c>
-      <c r="B152" t="s">
-        <v>43</v>
+      <c r="B152" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C152" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D152" t="s">
         <v>52</v>
@@ -3675,39 +3721,39 @@
       <c r="A153" t="s">
         <v>162</v>
       </c>
-      <c r="B153" t="s">
-        <v>45</v>
+      <c r="B153" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C153" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D153" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>162</v>
       </c>
-      <c r="B154" t="s">
-        <v>47</v>
+      <c r="B154" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C154" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D154" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>175</v>
-      </c>
-      <c r="B155" t="s">
-        <v>5</v>
+        <v>162</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C155" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D155" t="s">
         <v>52</v>
@@ -3715,27 +3761,27 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>175</v>
-      </c>
-      <c r="B156" t="s">
-        <v>7</v>
+        <v>162</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C156" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D156" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>175</v>
-      </c>
-      <c r="B157" t="s">
-        <v>9</v>
+        <v>162</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C157" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D157" t="s">
         <v>52</v>
@@ -3743,41 +3789,41 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>175</v>
-      </c>
-      <c r="B158" t="s">
-        <v>17</v>
+        <v>162</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C158" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D158" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>175</v>
-      </c>
-      <c r="B159" t="s">
-        <v>19</v>
+        <v>162</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C159" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D159" t="s">
-        <v>70</v>
+        <v>381</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>181</v>
-      </c>
-      <c r="B160" t="s">
+        <v>175</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D160" t="s">
         <v>52</v>
@@ -3785,13 +3831,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>181</v>
-      </c>
-      <c r="B161" t="s">
+        <v>175</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D161" t="s">
         <v>52</v>
@@ -3799,13 +3845,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>181</v>
-      </c>
-      <c r="B162" t="s">
+        <v>175</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D162" t="s">
         <v>52</v>
@@ -3813,83 +3859,83 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>181</v>
-      </c>
-      <c r="B163" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C163" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D163" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>181</v>
-      </c>
-      <c r="B164" t="s">
+        <v>175</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C164" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D164" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>181</v>
       </c>
-      <c r="B165" t="s">
-        <v>21</v>
+      <c r="B165" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D165" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>181</v>
       </c>
-      <c r="B166" t="s">
-        <v>37</v>
+      <c r="B166" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D166" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>181</v>
       </c>
-      <c r="B167" t="s">
-        <v>39</v>
+      <c r="B167" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D167" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>181</v>
       </c>
-      <c r="B168" t="s">
-        <v>41</v>
+      <c r="B168" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C168" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D168" t="s">
         <v>52</v>
@@ -3899,25 +3945,25 @@
       <c r="A169" t="s">
         <v>181</v>
       </c>
-      <c r="B169" t="s">
-        <v>43</v>
+      <c r="B169" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C169" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D169" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>181</v>
       </c>
-      <c r="B170" t="s">
-        <v>45</v>
+      <c r="B170" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C170" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D170" t="s">
         <v>59</v>
@@ -3927,39 +3973,39 @@
       <c r="A171" t="s">
         <v>181</v>
       </c>
-      <c r="B171" t="s">
-        <v>47</v>
+      <c r="B171" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C171" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D171" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>181</v>
       </c>
-      <c r="B172" t="s">
-        <v>142</v>
+      <c r="B172" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C172" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D172" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>388</v>
-      </c>
-      <c r="B173" t="s">
-        <v>5</v>
+        <v>181</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C173" t="s">
-        <v>385</v>
+        <v>190</v>
       </c>
       <c r="D173" t="s">
         <v>52</v>
@@ -3967,55 +4013,55 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>388</v>
-      </c>
-      <c r="B174" t="s">
-        <v>7</v>
+        <v>181</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C174" t="s">
-        <v>386</v>
+        <v>191</v>
       </c>
       <c r="D174" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>388</v>
-      </c>
-      <c r="B175" t="s">
-        <v>9</v>
+        <v>181</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C175" t="s">
-        <v>387</v>
+        <v>192</v>
       </c>
       <c r="D175" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>195</v>
-      </c>
-      <c r="B176" t="s">
-        <v>45</v>
+        <v>181</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C176" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D176" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>195</v>
-      </c>
-      <c r="B177" t="s">
-        <v>47</v>
+        <v>181</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C177" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D177" t="s">
         <v>52</v>
@@ -4023,27 +4069,27 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>195</v>
-      </c>
-      <c r="B178" t="s">
-        <v>142</v>
+        <v>388</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>198</v>
+        <v>385</v>
       </c>
       <c r="D178" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>195</v>
-      </c>
-      <c r="B179" t="s">
-        <v>144</v>
+        <v>388</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>199</v>
+        <v>386</v>
       </c>
       <c r="D179" t="s">
         <v>59</v>
@@ -4051,27 +4097,27 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>195</v>
-      </c>
-      <c r="B180" t="s">
-        <v>146</v>
+        <v>388</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>200</v>
+        <v>387</v>
       </c>
       <c r="D180" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>195</v>
       </c>
-      <c r="B181" t="s">
-        <v>201</v>
+      <c r="B181" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C181" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D181" t="s">
         <v>52</v>
@@ -4081,25 +4127,25 @@
       <c r="A182" t="s">
         <v>195</v>
       </c>
-      <c r="B182" t="s">
-        <v>203</v>
+      <c r="B182" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C182" t="s">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="D182" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>195</v>
       </c>
-      <c r="B183" t="s">
-        <v>204</v>
+      <c r="B183" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C183" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D183" t="s">
         <v>59</v>
@@ -4109,11 +4155,11 @@
       <c r="A184" t="s">
         <v>195</v>
       </c>
-      <c r="B184" t="s">
-        <v>206</v>
+      <c r="B184" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="C184" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D184" t="s">
         <v>59</v>
@@ -4123,11 +4169,11 @@
       <c r="A185" t="s">
         <v>195</v>
       </c>
-      <c r="B185" t="s">
-        <v>208</v>
+      <c r="B185" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="C185" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D185" t="s">
         <v>59</v>
@@ -4137,81 +4183,81 @@
       <c r="A186" t="s">
         <v>195</v>
       </c>
-      <c r="B186" t="s">
-        <v>210</v>
+      <c r="B186" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="C186" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D186" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>195</v>
       </c>
-      <c r="B187" t="s">
-        <v>212</v>
+      <c r="B187" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="C187" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="D187" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>195</v>
       </c>
-      <c r="B188" t="s">
-        <v>214</v>
+      <c r="B188" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="C188" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D188" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>215</v>
-      </c>
-      <c r="B189" t="s">
-        <v>5</v>
+        <v>195</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="C189" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D189" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>215</v>
-      </c>
-      <c r="B190" t="s">
-        <v>7</v>
+        <v>195</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="C190" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D190" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>215</v>
-      </c>
-      <c r="B191" t="s">
-        <v>9</v>
+        <v>195</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="C191" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D191" t="s">
         <v>59</v>
@@ -4219,97 +4265,97 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>215</v>
-      </c>
-      <c r="B192" t="s">
-        <v>17</v>
+        <v>195</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="C192" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D192" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>215</v>
-      </c>
-      <c r="B193" t="s">
-        <v>19</v>
+        <v>195</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="C193" t="s">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="D193" t="s">
-        <v>59</v>
+        <v>381</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>215</v>
       </c>
-      <c r="B194" t="s">
-        <v>21</v>
+      <c r="B194" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D194" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>215</v>
       </c>
-      <c r="B195" t="s">
-        <v>37</v>
+      <c r="B195" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="D195" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>222</v>
-      </c>
-      <c r="B196" t="s">
-        <v>5</v>
+        <v>215</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="D196" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>222</v>
-      </c>
-      <c r="B197" t="s">
-        <v>7</v>
+        <v>215</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C197" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="D197" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>222</v>
-      </c>
-      <c r="B198" t="s">
-        <v>9</v>
+        <v>215</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C198" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D198" t="s">
         <v>59</v>
@@ -4317,41 +4363,41 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>222</v>
-      </c>
-      <c r="B199" t="s">
-        <v>17</v>
+        <v>215</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C199" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D199" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>222</v>
-      </c>
-      <c r="B200" t="s">
-        <v>19</v>
+        <v>215</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C200" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="D200" t="s">
-        <v>59</v>
+        <v>381</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>222</v>
       </c>
-      <c r="B201" t="s">
-        <v>21</v>
+      <c r="B201" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="D201" t="s">
         <v>52</v>
@@ -4361,25 +4407,25 @@
       <c r="A202" t="s">
         <v>222</v>
       </c>
-      <c r="B202" t="s">
-        <v>37</v>
+      <c r="B202" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="D202" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>222</v>
       </c>
-      <c r="B203" t="s">
-        <v>39</v>
+      <c r="B203" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D203" t="s">
         <v>59</v>
@@ -4389,11 +4435,11 @@
       <c r="A204" t="s">
         <v>222</v>
       </c>
-      <c r="B204" t="s">
-        <v>41</v>
+      <c r="B204" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C204" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="D204" t="s">
         <v>59</v>
@@ -4403,11 +4449,11 @@
       <c r="A205" t="s">
         <v>222</v>
       </c>
-      <c r="B205" t="s">
-        <v>43</v>
+      <c r="B205" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C205" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D205" t="s">
         <v>59</v>
@@ -4417,67 +4463,67 @@
       <c r="A206" t="s">
         <v>222</v>
       </c>
-      <c r="B206" t="s">
-        <v>45</v>
+      <c r="B206" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C206" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D206" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>222</v>
       </c>
-      <c r="B207" t="s">
-        <v>47</v>
+      <c r="B207" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C207" t="s">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="D207" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>222</v>
       </c>
-      <c r="B208" t="s">
-        <v>142</v>
+      <c r="B208" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C208" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D208" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>232</v>
-      </c>
-      <c r="B209" t="s">
-        <v>5</v>
+        <v>222</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C209" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="D209" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>232</v>
-      </c>
-      <c r="B210" t="s">
-        <v>7</v>
+        <v>222</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C210" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D210" t="s">
         <v>59</v>
@@ -4485,83 +4531,83 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>232</v>
-      </c>
-      <c r="B211" t="s">
-        <v>9</v>
+        <v>222</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C211" t="s">
-        <v>87</v>
+        <v>229</v>
       </c>
       <c r="D211" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>232</v>
-      </c>
-      <c r="B212" t="s">
-        <v>17</v>
+        <v>222</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C212" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D212" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>232</v>
-      </c>
-      <c r="B213" t="s">
-        <v>19</v>
+        <v>222</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C213" t="s">
-        <v>2</v>
+        <v>231</v>
       </c>
       <c r="D213" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>232</v>
       </c>
-      <c r="B214" t="s">
-        <v>21</v>
+      <c r="B214" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="D214" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>236</v>
-      </c>
-      <c r="B215" t="s">
-        <v>237</v>
+        <v>232</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D215" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>236</v>
-      </c>
-      <c r="B216" t="s">
-        <v>5</v>
+        <v>232</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D216" t="s">
         <v>52</v>
@@ -4569,27 +4615,27 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>236</v>
-      </c>
-      <c r="B217" t="s">
-        <v>7</v>
+        <v>232</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C217" t="s">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="D217" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>236</v>
-      </c>
-      <c r="B218" t="s">
-        <v>9</v>
+        <v>232</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C218" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D218" t="s">
         <v>52</v>
@@ -4597,41 +4643,41 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>236</v>
-      </c>
-      <c r="B219" t="s">
-        <v>17</v>
+        <v>232</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C219" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="D219" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>236</v>
       </c>
-      <c r="B220" t="s">
-        <v>19</v>
+      <c r="B220" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="C220" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D220" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>236</v>
       </c>
-      <c r="B221" t="s">
-        <v>21</v>
+      <c r="B221" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="D221" t="s">
         <v>52</v>
@@ -4641,11 +4687,11 @@
       <c r="A222" t="s">
         <v>236</v>
       </c>
-      <c r="B222" t="s">
-        <v>37</v>
+      <c r="B222" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="D222" t="s">
         <v>52</v>
@@ -4655,11 +4701,11 @@
       <c r="A223" t="s">
         <v>236</v>
       </c>
-      <c r="B223" t="s">
-        <v>39</v>
+      <c r="B223" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="D223" t="s">
         <v>52</v>
@@ -4669,25 +4715,25 @@
       <c r="A224" t="s">
         <v>236</v>
       </c>
-      <c r="B224" t="s">
-        <v>41</v>
+      <c r="B224" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C224" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D224" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>236</v>
       </c>
-      <c r="B225" t="s">
-        <v>43</v>
+      <c r="B225" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C225" t="s">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="D225" t="s">
         <v>52</v>
@@ -4697,67 +4743,67 @@
       <c r="A226" t="s">
         <v>236</v>
       </c>
-      <c r="B226" t="s">
-        <v>45</v>
+      <c r="B226" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C226" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="D226" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>236</v>
       </c>
-      <c r="B227" t="s">
-        <v>47</v>
+      <c r="B227" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C227" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D227" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>244</v>
-      </c>
-      <c r="B228" t="s">
-        <v>7</v>
+        <v>236</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C228" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D228" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>244</v>
-      </c>
-      <c r="B229" t="s">
-        <v>246</v>
+        <v>236</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C229" t="s">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="D229" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>244</v>
-      </c>
-      <c r="B230" t="s">
-        <v>248</v>
+        <v>236</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C230" t="s">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="D230" t="s">
         <v>52</v>
@@ -4765,69 +4811,69 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>244</v>
-      </c>
-      <c r="B231" t="s">
-        <v>250</v>
+        <v>236</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C231" t="s">
-        <v>251</v>
+        <v>46</v>
       </c>
       <c r="D231" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>244</v>
-      </c>
-      <c r="B232" t="s">
-        <v>252</v>
+        <v>236</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C232" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D232" t="s">
-        <v>59</v>
+        <v>381</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>244</v>
       </c>
-      <c r="B233" t="s">
-        <v>254</v>
+      <c r="B233" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C233" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D233" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>244</v>
       </c>
-      <c r="B234" t="s">
-        <v>256</v>
+      <c r="B234" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="C234" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D234" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>258</v>
-      </c>
-      <c r="B235" t="s">
-        <v>5</v>
+        <v>244</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="C235" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D235" t="s">
         <v>52</v>
@@ -4835,13 +4881,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>258</v>
-      </c>
-      <c r="B236" t="s">
-        <v>7</v>
+        <v>244</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="C236" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D236" t="s">
         <v>59</v>
@@ -4849,13 +4895,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>258</v>
-      </c>
-      <c r="B237" t="s">
-        <v>9</v>
+        <v>244</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="C237" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D237" t="s">
         <v>59</v>
@@ -4863,13 +4909,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>258</v>
-      </c>
-      <c r="B238" t="s">
-        <v>17</v>
+        <v>244</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="C238" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D238" t="s">
         <v>59</v>
@@ -4877,13 +4923,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>258</v>
-      </c>
-      <c r="B239" t="s">
-        <v>19</v>
+        <v>244</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="C239" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D239" t="s">
         <v>59</v>
@@ -4893,11 +4939,11 @@
       <c r="A240" t="s">
         <v>258</v>
       </c>
-      <c r="B240" t="s">
-        <v>21</v>
+      <c r="B240" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D240" t="s">
         <v>52</v>
@@ -4907,11 +4953,11 @@
       <c r="A241" t="s">
         <v>258</v>
       </c>
-      <c r="B241" t="s">
-        <v>37</v>
+      <c r="B241" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D241" t="s">
         <v>59</v>
@@ -4921,25 +4967,25 @@
       <c r="A242" t="s">
         <v>258</v>
       </c>
-      <c r="B242" t="s">
-        <v>39</v>
+      <c r="B242" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C242" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D242" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>258</v>
       </c>
-      <c r="B243" t="s">
-        <v>41</v>
+      <c r="B243" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C243" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D243" t="s">
         <v>59</v>
@@ -4947,27 +4993,27 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>268</v>
-      </c>
-      <c r="B244" t="s">
-        <v>5</v>
+        <v>258</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C244" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D244" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>268</v>
-      </c>
-      <c r="B245" t="s">
-        <v>7</v>
+        <v>258</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C245" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D245" t="s">
         <v>52</v>
@@ -4975,13 +5021,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>268</v>
-      </c>
-      <c r="B246" t="s">
-        <v>9</v>
+        <v>258</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C246" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D246" t="s">
         <v>59</v>
@@ -4989,27 +5035,27 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>268</v>
-      </c>
-      <c r="B247" t="s">
-        <v>17</v>
+        <v>258</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C247" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D247" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>268</v>
-      </c>
-      <c r="B248" t="s">
-        <v>19</v>
+        <v>258</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C248" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="D248" t="s">
         <v>59</v>
@@ -5017,55 +5063,55 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>268</v>
-      </c>
-      <c r="B249" t="s">
-        <v>21</v>
+        <v>397</v>
+      </c>
+      <c r="B249" s="1">
+        <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>273</v>
+        <v>398</v>
       </c>
       <c r="D249" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>268</v>
-      </c>
-      <c r="B250" t="s">
-        <v>37</v>
+        <v>397</v>
+      </c>
+      <c r="B250" s="1">
+        <v>2</v>
       </c>
       <c r="C250" t="s">
-        <v>205</v>
+        <v>399</v>
       </c>
       <c r="D250" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>268</v>
-      </c>
-      <c r="B251" t="s">
-        <v>39</v>
+        <v>397</v>
+      </c>
+      <c r="B251" s="1">
+        <v>3</v>
       </c>
       <c r="C251" t="s">
-        <v>207</v>
+        <v>400</v>
       </c>
       <c r="D251" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>268</v>
-      </c>
-      <c r="B252" t="s">
-        <v>41</v>
+        <v>397</v>
+      </c>
+      <c r="B252" s="1">
+        <v>4</v>
       </c>
       <c r="C252" t="s">
-        <v>228</v>
+        <v>401</v>
       </c>
       <c r="D252" t="s">
         <v>59</v>
@@ -5073,55 +5119,55 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>268</v>
-      </c>
-      <c r="B253" t="s">
-        <v>43</v>
+        <v>397</v>
+      </c>
+      <c r="B253" s="1">
+        <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>274</v>
+        <v>402</v>
       </c>
       <c r="D253" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>268</v>
       </c>
-      <c r="B254" t="s">
-        <v>45</v>
+      <c r="B254" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C254" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D254" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>268</v>
       </c>
-      <c r="B255" t="s">
-        <v>47</v>
+      <c r="B255" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C255" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="D255" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>276</v>
-      </c>
-      <c r="B256" t="s">
-        <v>5</v>
+        <v>268</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C256" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D256" t="s">
         <v>59</v>
@@ -5129,55 +5175,55 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>276</v>
-      </c>
-      <c r="B257" t="s">
-        <v>7</v>
+        <v>268</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C257" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D257" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>276</v>
-      </c>
-      <c r="B258" t="s">
-        <v>9</v>
+        <v>268</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C258" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="D258" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>276</v>
-      </c>
-      <c r="B259" t="s">
-        <v>17</v>
+        <v>268</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C259" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D259" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>276</v>
-      </c>
-      <c r="B260" t="s">
-        <v>19</v>
+        <v>268</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C260" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="D260" t="s">
         <v>59</v>
@@ -5185,97 +5231,97 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>276</v>
-      </c>
-      <c r="B261" t="s">
-        <v>21</v>
+        <v>268</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C261" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="D261" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>276</v>
-      </c>
-      <c r="B262" t="s">
-        <v>39</v>
+        <v>268</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C262" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="D262" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>276</v>
-      </c>
-      <c r="B263" t="s">
-        <v>41</v>
+        <v>268</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C263" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D263" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>284</v>
-      </c>
-      <c r="B264" t="s">
-        <v>5</v>
+        <v>268</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C264" t="s">
-        <v>102</v>
+        <v>275</v>
       </c>
       <c r="D264" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>284</v>
-      </c>
-      <c r="B265" t="s">
-        <v>7</v>
+        <v>268</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C265" t="s">
-        <v>103</v>
+        <v>231</v>
       </c>
       <c r="D265" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>284</v>
-      </c>
-      <c r="B266" t="s">
-        <v>9</v>
+        <v>276</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C266" t="s">
-        <v>104</v>
+        <v>277</v>
       </c>
       <c r="D266" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>284</v>
-      </c>
-      <c r="B267" t="s">
-        <v>17</v>
+        <v>276</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C267" t="s">
-        <v>105</v>
+        <v>278</v>
       </c>
       <c r="D267" t="s">
         <v>52</v>
@@ -5283,13 +5329,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>284</v>
-      </c>
-      <c r="B268" t="s">
-        <v>19</v>
+        <v>276</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C268" t="s">
-        <v>35</v>
+        <v>279</v>
       </c>
       <c r="D268" t="s">
         <v>52</v>
@@ -5297,13 +5343,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>284</v>
-      </c>
-      <c r="B269" t="s">
-        <v>21</v>
+        <v>276</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C269" t="s">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="D269" t="s">
         <v>52</v>
@@ -5311,97 +5357,97 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>284</v>
-      </c>
-      <c r="B270" t="s">
-        <v>37</v>
+        <v>276</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C270" t="s">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="D270" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>284</v>
-      </c>
-      <c r="B271" t="s">
-        <v>39</v>
+        <v>276</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C271" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D271" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>284</v>
-      </c>
-      <c r="B272" t="s">
-        <v>41</v>
+        <v>276</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C272" t="s">
-        <v>42</v>
+        <v>282</v>
       </c>
       <c r="D272" t="s">
-        <v>59</v>
+        <v>381</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>284</v>
-      </c>
-      <c r="B273" t="s">
-        <v>43</v>
+        <v>276</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C273" t="s">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="D273" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>284</v>
       </c>
-      <c r="B274" t="s">
-        <v>45</v>
+      <c r="B274" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C274" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D274" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>284</v>
       </c>
-      <c r="B275" t="s">
-        <v>47</v>
+      <c r="B275" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C275" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D275" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>285</v>
-      </c>
-      <c r="B276" t="s">
-        <v>5</v>
+        <v>284</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C276" t="s">
-        <v>286</v>
+        <v>104</v>
       </c>
       <c r="D276" t="s">
         <v>52</v>
@@ -5409,13 +5455,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>285</v>
-      </c>
-      <c r="B277" t="s">
-        <v>7</v>
+        <v>284</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C277" t="s">
-        <v>287</v>
+        <v>105</v>
       </c>
       <c r="D277" t="s">
         <v>52</v>
@@ -5423,69 +5469,69 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>285</v>
-      </c>
-      <c r="B278" t="s">
-        <v>9</v>
+        <v>284</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C278" t="s">
-        <v>288</v>
+        <v>35</v>
       </c>
       <c r="D278" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>285</v>
-      </c>
-      <c r="B279" t="s">
-        <v>17</v>
+        <v>284</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C279" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="D279" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>285</v>
-      </c>
-      <c r="B280" t="s">
-        <v>19</v>
+        <v>284</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C280" t="s">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="D280" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>285</v>
-      </c>
-      <c r="B281" t="s">
-        <v>21</v>
+        <v>284</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C281" t="s">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="D281" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>285</v>
-      </c>
-      <c r="B282" t="s">
-        <v>37</v>
+        <v>284</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C282" t="s">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="D282" t="s">
         <v>59</v>
@@ -5493,111 +5539,111 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>285</v>
-      </c>
-      <c r="B283" t="s">
-        <v>39</v>
+        <v>284</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C283" t="s">
-        <v>292</v>
+        <v>44</v>
       </c>
       <c r="D283" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>285</v>
-      </c>
-      <c r="B284" t="s">
-        <v>41</v>
+        <v>284</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C284" t="s">
-        <v>293</v>
+        <v>46</v>
       </c>
       <c r="D284" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>285</v>
-      </c>
-      <c r="B285" t="s">
-        <v>43</v>
+        <v>284</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C285" t="s">
-        <v>294</v>
+        <v>106</v>
       </c>
       <c r="D285" t="s">
-        <v>59</v>
+        <v>381</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>285</v>
       </c>
-      <c r="B286" t="s">
-        <v>45</v>
+      <c r="B286" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C286" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D286" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>285</v>
       </c>
-      <c r="B287" t="s">
-        <v>47</v>
+      <c r="B287" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C287" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D287" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>285</v>
       </c>
-      <c r="B288" t="s">
-        <v>142</v>
+      <c r="B288" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C288" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D288" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>298</v>
-      </c>
-      <c r="B289" t="s">
-        <v>5</v>
+        <v>285</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C289" t="s">
-        <v>299</v>
+        <v>133</v>
       </c>
       <c r="D289" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>298</v>
-      </c>
-      <c r="B290" t="s">
-        <v>7</v>
+        <v>285</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C290" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D290" t="s">
         <v>59</v>
@@ -5605,13 +5651,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>298</v>
-      </c>
-      <c r="B291" t="s">
-        <v>9</v>
+        <v>285</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C291" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D291" t="s">
         <v>59</v>
@@ -5619,13 +5665,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>298</v>
-      </c>
-      <c r="B292" t="s">
-        <v>17</v>
+        <v>285</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C292" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D292" t="s">
         <v>59</v>
@@ -5633,97 +5679,97 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>298</v>
-      </c>
-      <c r="B293" t="s">
-        <v>19</v>
+        <v>285</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C293" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D293" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>298</v>
-      </c>
-      <c r="B294" s="1">
-        <v>6</v>
+        <v>285</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C294" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="D294" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>304</v>
-      </c>
-      <c r="B295" t="s">
-        <v>5</v>
+        <v>285</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C295" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D295" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>304</v>
-      </c>
-      <c r="B296" t="s">
-        <v>7</v>
+        <v>285</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C296" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D296" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>304</v>
-      </c>
-      <c r="B297" t="s">
-        <v>9</v>
+        <v>285</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C297" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D297" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>304</v>
-      </c>
-      <c r="B298" t="s">
-        <v>17</v>
+        <v>285</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C298" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D298" t="s">
-        <v>59</v>
+        <v>381</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>304</v>
-      </c>
-      <c r="B299" t="s">
-        <v>19</v>
+        <v>298</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C299" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D299" t="s">
         <v>52</v>
@@ -5731,13 +5777,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>304</v>
-      </c>
-      <c r="B300" t="s">
-        <v>21</v>
+        <v>298</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C300" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D300" t="s">
         <v>59</v>
@@ -5745,69 +5791,69 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>304</v>
-      </c>
-      <c r="B301" t="s">
-        <v>37</v>
+        <v>298</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C301" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D301" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>304</v>
-      </c>
-      <c r="B302" t="s">
-        <v>39</v>
+        <v>298</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C302" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D302" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>304</v>
-      </c>
-      <c r="B303" t="s">
-        <v>41</v>
+        <v>298</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C303" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D303" t="s">
-        <v>381</v>
+        <v>70</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>314</v>
-      </c>
-      <c r="B304" t="s">
-        <v>5</v>
+        <v>298</v>
+      </c>
+      <c r="B304" s="1">
+        <v>6</v>
       </c>
       <c r="C304" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="D304" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>314</v>
-      </c>
-      <c r="B305" t="s">
-        <v>7</v>
+        <v>304</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C305" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D305" t="s">
         <v>52</v>
@@ -5815,13 +5861,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>314</v>
-      </c>
-      <c r="B306" t="s">
-        <v>9</v>
+        <v>304</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C306" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D306" t="s">
         <v>52</v>
@@ -5829,13 +5875,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>314</v>
-      </c>
-      <c r="B307" t="s">
-        <v>17</v>
+        <v>304</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C307" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D307" t="s">
         <v>52</v>
@@ -5843,41 +5889,41 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>314</v>
-      </c>
-      <c r="B308" t="s">
-        <v>19</v>
+        <v>304</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C308" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D308" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>314</v>
-      </c>
-      <c r="B309" t="s">
-        <v>21</v>
+        <v>304</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C309" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D309" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>314</v>
-      </c>
-      <c r="B310" t="s">
-        <v>37</v>
+        <v>304</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C310" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D310" t="s">
         <v>59</v>
@@ -5885,13 +5931,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>314</v>
-      </c>
-      <c r="B311" t="s">
-        <v>41</v>
+        <v>304</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C311" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D311" t="s">
         <v>70</v>
@@ -5899,13 +5945,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>323</v>
-      </c>
-      <c r="B312" t="s">
-        <v>93</v>
+        <v>304</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C312" t="s">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="D312" t="s">
         <v>70</v>
@@ -5913,27 +5959,27 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>323</v>
-      </c>
-      <c r="B313" t="s">
-        <v>5</v>
+        <v>304</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C313" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D313" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>323</v>
-      </c>
-      <c r="B314" t="s">
-        <v>7</v>
+        <v>314</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C314" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D314" t="s">
         <v>52</v>
@@ -5941,13 +5987,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>323</v>
-      </c>
-      <c r="B315" t="s">
-        <v>9</v>
+        <v>314</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C315" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D315" t="s">
         <v>52</v>
@@ -5955,13 +6001,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>323</v>
-      </c>
-      <c r="B316" t="s">
-        <v>17</v>
+        <v>314</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C316" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D316" t="s">
         <v>52</v>
@@ -5969,13 +6015,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>323</v>
-      </c>
-      <c r="B317" t="s">
-        <v>19</v>
+        <v>314</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C317" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D317" t="s">
         <v>52</v>
@@ -5983,111 +6029,111 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>323</v>
-      </c>
-      <c r="B318" t="s">
-        <v>21</v>
+        <v>314</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C318" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D318" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>323</v>
-      </c>
-      <c r="B319" t="s">
-        <v>37</v>
+        <v>314</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C319" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D319" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>331</v>
-      </c>
-      <c r="B320" t="s">
-        <v>5</v>
+        <v>314</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C320" t="s">
-        <v>216</v>
+        <v>321</v>
       </c>
       <c r="D320" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>331</v>
-      </c>
-      <c r="B321" t="s">
-        <v>7</v>
+        <v>314</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C321" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D321" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>331</v>
-      </c>
-      <c r="B322" t="s">
-        <v>9</v>
+        <v>323</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C322" t="s">
-        <v>333</v>
+        <v>78</v>
       </c>
       <c r="D322" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>331</v>
-      </c>
-      <c r="B323" t="s">
-        <v>17</v>
+        <v>323</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C323" t="s">
-        <v>29</v>
+        <v>324</v>
       </c>
       <c r="D323" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>331</v>
-      </c>
-      <c r="B324" t="s">
-        <v>19</v>
+        <v>323</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C324" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D324" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>335</v>
-      </c>
-      <c r="B325" t="s">
-        <v>5</v>
+        <v>323</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C325" t="s">
-        <v>31</v>
+        <v>326</v>
       </c>
       <c r="D325" t="s">
         <v>52</v>
@@ -6095,13 +6141,13 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>335</v>
-      </c>
-      <c r="B326" t="s">
-        <v>7</v>
+        <v>323</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C326" t="s">
-        <v>32</v>
+        <v>327</v>
       </c>
       <c r="D326" t="s">
         <v>52</v>
@@ -6109,13 +6155,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>335</v>
-      </c>
-      <c r="B327" t="s">
-        <v>9</v>
+        <v>323</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C327" t="s">
-        <v>33</v>
+        <v>328</v>
       </c>
       <c r="D327" t="s">
         <v>52</v>
@@ -6123,41 +6169,41 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>335</v>
-      </c>
-      <c r="B328" t="s">
-        <v>17</v>
+        <v>323</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C328" t="s">
-        <v>34</v>
+        <v>329</v>
       </c>
       <c r="D328" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>335</v>
-      </c>
-      <c r="B329" t="s">
-        <v>19</v>
+        <v>323</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C329" t="s">
-        <v>35</v>
+        <v>330</v>
       </c>
       <c r="D329" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>335</v>
-      </c>
-      <c r="B330" t="s">
-        <v>21</v>
+        <v>408</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C330" t="s">
-        <v>36</v>
+        <v>409</v>
       </c>
       <c r="D330" t="s">
         <v>52</v>
@@ -6165,83 +6211,83 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>335</v>
-      </c>
-      <c r="B331" t="s">
-        <v>37</v>
+        <v>408</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C331" t="s">
-        <v>38</v>
+        <v>410</v>
       </c>
       <c r="D331" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>335</v>
-      </c>
-      <c r="B332" t="s">
-        <v>39</v>
+        <v>408</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C332" t="s">
-        <v>40</v>
+        <v>411</v>
       </c>
       <c r="D332" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>335</v>
-      </c>
-      <c r="B333" t="s">
-        <v>41</v>
+        <v>331</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C333" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="D333" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>335</v>
-      </c>
-      <c r="B334" t="s">
-        <v>43</v>
+        <v>331</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C334" t="s">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="D334" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>335</v>
-      </c>
-      <c r="B335" t="s">
-        <v>45</v>
+        <v>331</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C335" t="s">
-        <v>46</v>
+        <v>333</v>
       </c>
       <c r="D335" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>335</v>
-      </c>
-      <c r="B336" t="s">
-        <v>47</v>
+        <v>331</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C336" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D336" t="s">
         <v>381</v>
@@ -6249,27 +6295,27 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>336</v>
-      </c>
-      <c r="B337" t="s">
-        <v>5</v>
+        <v>331</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C337" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D337" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>336</v>
-      </c>
-      <c r="B338" t="s">
-        <v>7</v>
+        <v>335</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C338" t="s">
-        <v>338</v>
+        <v>31</v>
       </c>
       <c r="D338" t="s">
         <v>52</v>
@@ -6277,13 +6323,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>336</v>
-      </c>
-      <c r="B339" t="s">
-        <v>9</v>
+        <v>335</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C339" t="s">
-        <v>339</v>
+        <v>32</v>
       </c>
       <c r="D339" t="s">
         <v>52</v>
@@ -6291,13 +6337,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>336</v>
-      </c>
-      <c r="B340" t="s">
-        <v>17</v>
+        <v>335</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C340" t="s">
-        <v>340</v>
+        <v>33</v>
       </c>
       <c r="D340" t="s">
         <v>52</v>
@@ -6305,13 +6351,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>336</v>
-      </c>
-      <c r="B341" t="s">
-        <v>19</v>
+        <v>335</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C341" t="s">
-        <v>341</v>
+        <v>34</v>
       </c>
       <c r="D341" t="s">
         <v>52</v>
@@ -6319,41 +6365,41 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>336</v>
-      </c>
-      <c r="B342" t="s">
-        <v>21</v>
+        <v>335</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C342" t="s">
-        <v>342</v>
+        <v>35</v>
       </c>
       <c r="D342" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>336</v>
-      </c>
-      <c r="B343" t="s">
-        <v>37</v>
+        <v>335</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C343" t="s">
-        <v>343</v>
+        <v>36</v>
       </c>
       <c r="D343" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>336</v>
-      </c>
-      <c r="B344" t="s">
-        <v>39</v>
+        <v>335</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C344" t="s">
-        <v>344</v>
+        <v>38</v>
       </c>
       <c r="D344" t="s">
         <v>52</v>
@@ -6361,181 +6407,181 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>336</v>
-      </c>
-      <c r="B345" t="s">
-        <v>41</v>
+        <v>335</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C345" t="s">
-        <v>345</v>
+        <v>40</v>
       </c>
       <c r="D345" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>336</v>
-      </c>
-      <c r="B346" t="s">
-        <v>43</v>
+        <v>335</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C346" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D346" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>336</v>
-      </c>
-      <c r="B347" t="s">
-        <v>11</v>
+        <v>335</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C347" t="s">
-        <v>346</v>
+        <v>44</v>
       </c>
       <c r="D347" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>347</v>
-      </c>
-      <c r="B348" t="s">
-        <v>5</v>
+        <v>335</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C348" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D348" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>347</v>
-      </c>
-      <c r="B349" t="s">
-        <v>7</v>
+        <v>335</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C349" t="s">
-        <v>348</v>
+        <v>48</v>
       </c>
       <c r="D349" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>347</v>
-      </c>
-      <c r="B350" t="s">
-        <v>9</v>
+        <v>336</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C350" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D350" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>347</v>
-      </c>
-      <c r="B351" t="s">
-        <v>17</v>
+        <v>336</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C351" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D351" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>347</v>
-      </c>
-      <c r="B352" t="s">
-        <v>19</v>
+        <v>336</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C352" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="D352" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>347</v>
-      </c>
-      <c r="B353" t="s">
-        <v>21</v>
+        <v>336</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C353" t="s">
-        <v>231</v>
+        <v>340</v>
       </c>
       <c r="D353" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>352</v>
-      </c>
-      <c r="B354" t="s">
-        <v>93</v>
+        <v>336</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C354" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D354" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>352</v>
-      </c>
-      <c r="B355" t="s">
-        <v>5</v>
+        <v>336</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C355" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="D355" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>352</v>
-      </c>
-      <c r="B356" t="s">
-        <v>7</v>
+        <v>336</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C356" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D356" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>352</v>
-      </c>
-      <c r="B357" t="s">
-        <v>9</v>
+        <v>336</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C357" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D357" t="s">
         <v>52</v>
@@ -6543,55 +6589,55 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>352</v>
-      </c>
-      <c r="B358" t="s">
-        <v>17</v>
+        <v>336</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C358" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="D358" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>358</v>
-      </c>
-      <c r="B359" t="s">
-        <v>5</v>
+        <v>336</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C359" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D359" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>358</v>
-      </c>
-      <c r="B360" t="s">
-        <v>7</v>
+        <v>336</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C360" t="s">
-        <v>32</v>
+        <v>346</v>
       </c>
       <c r="D360" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>358</v>
-      </c>
-      <c r="B361" t="s">
-        <v>9</v>
+        <v>347</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C361" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D361" t="s">
         <v>52</v>
@@ -6599,13 +6645,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>358</v>
-      </c>
-      <c r="B362" t="s">
-        <v>17</v>
+        <v>347</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C362" t="s">
-        <v>34</v>
+        <v>348</v>
       </c>
       <c r="D362" t="s">
         <v>52</v>
@@ -6613,83 +6659,83 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>358</v>
-      </c>
-      <c r="B363" t="s">
-        <v>19</v>
+        <v>347</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C363" t="s">
-        <v>35</v>
+        <v>349</v>
       </c>
       <c r="D363" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>358</v>
-      </c>
-      <c r="B364" t="s">
-        <v>21</v>
+        <v>347</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C364" t="s">
-        <v>36</v>
+        <v>350</v>
       </c>
       <c r="D364" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>358</v>
-      </c>
-      <c r="B365" t="s">
-        <v>37</v>
+        <v>347</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C365" t="s">
-        <v>38</v>
+        <v>351</v>
       </c>
       <c r="D365" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>358</v>
-      </c>
-      <c r="B366" t="s">
-        <v>39</v>
+        <v>347</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C366" t="s">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="D366" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>358</v>
-      </c>
-      <c r="B367" t="s">
-        <v>41</v>
+        <v>352</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C367" t="s">
-        <v>42</v>
+        <v>353</v>
       </c>
       <c r="D367" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>358</v>
-      </c>
-      <c r="B368" t="s">
-        <v>43</v>
+        <v>352</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C368" t="s">
-        <v>44</v>
+        <v>354</v>
       </c>
       <c r="D368" t="s">
         <v>52</v>
@@ -6697,55 +6743,55 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>358</v>
-      </c>
-      <c r="B369" t="s">
-        <v>45</v>
+        <v>352</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C369" t="s">
-        <v>46</v>
+        <v>355</v>
       </c>
       <c r="D369" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>358</v>
-      </c>
-      <c r="B370" t="s">
-        <v>47</v>
+        <v>352</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C370" t="s">
-        <v>48</v>
+        <v>356</v>
       </c>
       <c r="D370" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>359</v>
-      </c>
-      <c r="B371" t="s">
-        <v>93</v>
+        <v>352</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C371" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D371" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>359</v>
-      </c>
-      <c r="B372" t="s">
+        <v>358</v>
+      </c>
+      <c r="B372" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C372" t="s">
-        <v>361</v>
+        <v>31</v>
       </c>
       <c r="D372" t="s">
         <v>52</v>
@@ -6753,13 +6799,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>362</v>
-      </c>
-      <c r="B373" t="s">
-        <v>5</v>
+        <v>358</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C373" t="s">
-        <v>363</v>
+        <v>32</v>
       </c>
       <c r="D373" t="s">
         <v>52</v>
@@ -6767,13 +6813,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>362</v>
-      </c>
-      <c r="B374" t="s">
-        <v>7</v>
+        <v>358</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C374" t="s">
-        <v>364</v>
+        <v>33</v>
       </c>
       <c r="D374" t="s">
         <v>52</v>
@@ -6781,153 +6827,153 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>362</v>
-      </c>
-      <c r="B375" t="s">
-        <v>9</v>
+        <v>358</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C375" t="s">
-        <v>365</v>
+        <v>34</v>
       </c>
       <c r="D375" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>362</v>
-      </c>
-      <c r="B376" t="s">
-        <v>17</v>
+        <v>358</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C376" t="s">
-        <v>366</v>
+        <v>35</v>
       </c>
       <c r="D376" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>362</v>
-      </c>
-      <c r="B377" t="s">
-        <v>19</v>
+        <v>358</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C377" t="s">
-        <v>367</v>
+        <v>36</v>
       </c>
       <c r="D377" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>362</v>
-      </c>
-      <c r="B378" t="s">
-        <v>21</v>
+        <v>358</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C378" t="s">
-        <v>368</v>
+        <v>38</v>
       </c>
       <c r="D378" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>362</v>
-      </c>
-      <c r="B379" t="s">
-        <v>37</v>
+        <v>358</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C379" t="s">
-        <v>369</v>
+        <v>40</v>
       </c>
       <c r="D379" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>362</v>
-      </c>
-      <c r="B380" t="s">
-        <v>39</v>
+        <v>358</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C380" t="s">
-        <v>370</v>
+        <v>42</v>
       </c>
       <c r="D380" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>362</v>
-      </c>
-      <c r="B381" t="s">
-        <v>214</v>
+        <v>358</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C381" t="s">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="D381" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>371</v>
-      </c>
-      <c r="B382" t="s">
+        <v>358</v>
+      </c>
+      <c r="B382" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C382" t="s">
-        <v>372</v>
+        <v>46</v>
       </c>
       <c r="D382" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>371</v>
-      </c>
-      <c r="B383" t="s">
+        <v>358</v>
+      </c>
+      <c r="B383" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C383" t="s">
-        <v>373</v>
+        <v>48</v>
       </c>
       <c r="D383" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>371</v>
-      </c>
-      <c r="B384" t="s">
-        <v>142</v>
+        <v>359</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C384" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="D384" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>371</v>
-      </c>
-      <c r="B385" t="s">
-        <v>144</v>
+        <v>359</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C385" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="D385" t="s">
         <v>52</v>
@@ -6935,13 +6981,13 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>371</v>
-      </c>
-      <c r="B386" t="s">
-        <v>201</v>
+        <v>362</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C386" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="D386" t="s">
         <v>52</v>
@@ -6949,13 +6995,13 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>371</v>
-      </c>
-      <c r="B387" t="s">
-        <v>203</v>
+        <v>362</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C387" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="D387" t="s">
         <v>52</v>
@@ -6963,13 +7009,13 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>371</v>
-      </c>
-      <c r="B388" t="s">
-        <v>204</v>
+        <v>362</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C388" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D388" t="s">
         <v>59</v>
@@ -6977,91 +7023,97 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>371</v>
-      </c>
-      <c r="B389" t="s">
-        <v>379</v>
+        <v>362</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C389" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="D389" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>371</v>
-      </c>
-      <c r="B390" t="s">
-        <v>382</v>
+        <v>362</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C390" t="s">
+        <v>367</v>
       </c>
       <c r="D390" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>371</v>
-      </c>
-      <c r="B391" t="s">
-        <v>383</v>
+        <v>362</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C391" t="s">
+        <v>368</v>
       </c>
       <c r="D391" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>389</v>
-      </c>
-      <c r="B392">
-        <v>1</v>
+        <v>362</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C392" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="D392" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>389</v>
-      </c>
-      <c r="B393">
-        <v>2</v>
+        <v>362</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C393" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="D393" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>389</v>
-      </c>
-      <c r="B394">
-        <v>3</v>
+        <v>362</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="C394" t="s">
-        <v>392</v>
+        <v>231</v>
       </c>
       <c r="D394" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>389</v>
-      </c>
-      <c r="B395">
-        <v>4</v>
+        <v>371</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C395" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="D395" t="s">
         <v>52</v>
@@ -7069,27 +7121,27 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>389</v>
-      </c>
-      <c r="B396">
-        <v>5</v>
+        <v>371</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C396" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="D396" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>389</v>
-      </c>
-      <c r="B397">
-        <v>6</v>
+        <v>371</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C397" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="D397" t="s">
         <v>59</v>
@@ -7097,29 +7149,205 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>389</v>
-      </c>
-      <c r="B398">
-        <v>7</v>
+        <v>371</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="C398" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="D398" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
+        <v>371</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C399" t="s">
+        <v>376</v>
+      </c>
+      <c r="D399" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>371</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C400" t="s">
+        <v>377</v>
+      </c>
+      <c r="D400" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>371</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C401" t="s">
+        <v>378</v>
+      </c>
+      <c r="D401" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>371</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C402" t="s">
+        <v>380</v>
+      </c>
+      <c r="D402" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>371</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D403" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>371</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D404" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
         <v>389</v>
       </c>
-      <c r="B399">
+      <c r="B405" s="1">
+        <v>1</v>
+      </c>
+      <c r="C405" t="s">
+        <v>390</v>
+      </c>
+      <c r="D405" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>389</v>
+      </c>
+      <c r="B406" s="1">
+        <v>2</v>
+      </c>
+      <c r="C406" t="s">
+        <v>391</v>
+      </c>
+      <c r="D406" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>389</v>
+      </c>
+      <c r="B407" s="1">
+        <v>3</v>
+      </c>
+      <c r="C407" t="s">
+        <v>392</v>
+      </c>
+      <c r="D407" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>389</v>
+      </c>
+      <c r="B408" s="1">
+        <v>4</v>
+      </c>
+      <c r="C408" t="s">
+        <v>393</v>
+      </c>
+      <c r="D408" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>389</v>
+      </c>
+      <c r="B409" s="1">
+        <v>5</v>
+      </c>
+      <c r="C409" t="s">
+        <v>394</v>
+      </c>
+      <c r="D409" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>389</v>
+      </c>
+      <c r="B410" s="1">
+        <v>6</v>
+      </c>
+      <c r="C410" t="s">
+        <v>395</v>
+      </c>
+      <c r="D410" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>389</v>
+      </c>
+      <c r="B411" s="1">
+        <v>7</v>
+      </c>
+      <c r="C411" t="s">
+        <v>396</v>
+      </c>
+      <c r="D411" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>389</v>
+      </c>
+      <c r="B412" s="1">
         <v>8</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C412" t="s">
         <v>78</v>
       </c>
-      <c r="D399" t="s">
+      <c r="D412" t="s">
         <v>70</v>
       </c>
     </row>
